--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\s04p12a401\DB\cocktailDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="alcohol" sheetId="6" r:id="rId3"/>
     <sheet name="ingredient" sheetId="1" r:id="rId4"/>
     <sheet name="recipe" sheetId="3" r:id="rId5"/>
-    <sheet name="용어정리" sheetId="5" r:id="rId6"/>
+    <sheet name="cup" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">article!$C$1:$C$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">article!$C$1:$C$94</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="468">
   <si>
     <t>기저 주류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,21 +740,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 칵테일의 이름은 마시고 난 뒤에 마치 사막에서 물을 찾는 듯한 느낌을 들게 해서 유래되었습니다. 맛도 이름처럼 매우 맵다고 합니다. 정확히는 플로팅을 사용하는 칵테일이지만 플로팅을 하지 않아도 맛은 변하지 않습니다.
-여담으로 바카디 151을 섞어 넣으면 'Hello on the Earth'라는 칵테일이 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름에 사워가 들어가지만 그렇게 신맛나는 칵테일은 아닙니다. 데킬라에 비해 들어가는 레몬 주스의 양이 적어 도수가 높으니 마실 때 주의하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>칵테일의 이름은 데킬라를 마시고 난 숙취를 의미합니다. 오렌지 주스와 그레나딘 시럽이 들어가 잘 넘어가기 때문에 주의해야 합니다. 본 칵테일과는 반대로 석양을 컨셉으로 한 데킬라 선셋이라는 칵테일도 존재합니다. 또한 데킬라를 제외시키면 선라이즈라는 이름의 논 알콜 칵테일이 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데킬라 선라이즈가 태양이 뜨는 것을 모티브로 한 것과는 반대로 석양을 모티브로 한 칵테일입니다.
-그렇기 때문에 그레나딘 시럽이 위쪽에 부어지는 그라데이션을 볼 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -972,10 +962,6 @@
   </si>
   <si>
     <t>벨벳 해머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벨벳 해머ver2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1588,6 +1574,480 @@
   </si>
   <si>
     <t>한 잔 마시면 지진을 느낄 정도로 독한 칵테일입니다. 그에 걸맞게 47도라는 어마어마한 도수로 주의해야 합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진에 라임 주스와 라임을 넣어 마시는 칵테일입니다. 재료가 워낙 간단한지라 만들기 쉽고 단순한 만큼 맛의 밸런스가 요구됩니다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피즈 스타일의 칵테일 중에서 가장 유명한 칵테일입니다. '피즈'란 미국의 유명한 바텐더인 제리 토마스가 정립한 스타일 칵테일 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아틸러리(Artillery)라고도 불립니다. 진과 스윗 베르무트를 1:1 비율로 섞고 오렌지 비터를 추가한 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크 레이디와 유사한 칵테일 중 하나입니다. 달걀 흰자가 들어가는 것은 맛을 내기 위한 것이 아니라 유화제 역할을 하는 것으로 흔들 때 특유의 흰 거품이 이는 것이 특징입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬 즙과 설탕 시럽, 탄산수가 들어가 새콤달콤하면서도 시원한 맛을 내는 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마티니의 강한 맛이 약간 달콤한 맛으로 여성들에게 인기가 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름의 의미는 '(기독교의) 장로교 신자'이고 특유의 시원한 솔잎향과 심플한 맛으로 마니아층이 존해합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘다이아몬드 피즈’ 라고도 불립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크 레이디라는 이름의 유래는 1912년 영국 런던에서 공연된 동명의 연극이 흥행하고 열린 파티에서 그 여주인공을 연기한 여배우에게 바쳐진 데에서 유래한 것이며, 이후 오늘날까지 전해 내려온 것이라고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙고스투라 비터를 사용한 간단한 칵테일로 영국 선원들이 진에 비터를 쳐서 약효도 보고 맛도 좀 낫게 만들어서 먹던 것에서 왔다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓 짜낸 레몬 주스의 색깔 때문에 옅은 흰색 내지는 미황색을 띄게 되는데 여기서 칵테일의 이름이 유래되었다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료를 섞은 진 베이스 칵테일로 오래도록 사랑받은 칵테일 입니다. 청량감 덕분에 여름 대표 칵테일로 자리잡게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 칵테일은 콥스 리바이버 뿐만 아니라 '아이 오프너', '포그 커터'라는 이름의 칵테일은 19세기부터 있어 왔습니다. 이들의 용도는 숙취 해소를 위해 아침에 눈떠 마시는 칵테일들이었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미모사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mimosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bamboo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅쇼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin Chaud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상그리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangaree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아페롤 스프리츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aperol spritz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후의 죽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death in the afternoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casanova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순히 오렌지 주스와 섞기만 하면 만들 수 있는 간단한 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1889년 일본의 요코하마에서 만들어진 칵테일입니다. 매우 섬세한 향을 가지고 있는 이유로 레몬 필을 짜주면 '아모르' 라는 칵테일로 바뀌게 됩니다. 일본주와 비슷한 맛을 가지고 있으며 도수도 낮기 때문에 일본 음식과도 잘 어울린다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따뜻한 와인'이란 뜻으로 제조 과정중에 따뜻하게 데우기 때문에 와인의 알콜은 거의 증발하여 무알콜에 가깝습니다. 프랑스에서 유래되어 추운 겨울 몸을 따뜻하게 마시는 것이 보통이나, 여름에 차갑게 마시기도 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인과 포르투갈에서 유래되어 와인에 과일을 많이 넣고 주스를 섞어 숙성시킨 술입니다. 샹그리아를 끓여서 뱅쇼처럼 끓여 먹기도 하지만 주로 차게 숙성하여 먹기때문에 뱅쇼에 비해 알코올 농도가 높은 편입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1950년대 이탈리아에서 생겨났으며, 감귤향 리큐르인 아페롤과 일종의 스파클링 와인인 드라이 프로세코 와인, 그리고 탄산수를 일정 비율로 섞어 마시는 칵테일입니다. 이탈리아에 여행 다녀온 사람이라면 호텔이나 음식점에서 한번쯤은 접해볼 만큼 무척 유명하고 대중적인 식전주입니다. 더운 여름날에 마시기 좋은 칵테일이라고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈센트 반 고흐덕에 유명한 독주인 압생트와 샴페인을 재료로 합니다. 맛은 압생트의 산초, 그리고 향신료향과 샴페인의 청량감이 복합적으로 느껴지는 오묘한 맛입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래는 부르고뉴의 화이트 와인과 그 지방의 특산품인 카시스를 이용해 만든 칵테일로, 그 곳을 방문하는 외부인을 환영하기 위해 만들어졌다고 합니다. 처음 이름은 블랑 카스(Blanc Cass)였지만 이후 그 당시 시장의 이름을 따 시장키르(Major Kir)라고 불리게 되었으며 이후 줄여서 키르(Kir)라고 불리게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리큐르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-52</t>
+  </si>
+  <si>
+    <t>옥보단</t>
+  </si>
+  <si>
+    <t>골든 캐딜락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Cadillac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래스호퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grasshopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 위도우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Widow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔루아 밀크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kahlua Milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리 사워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midori Sour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올렛 피즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Violet fizz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버블껌 보이 샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubble Gum Boy Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베일리스 밀크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baileys milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velvet Hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레인 해머릿지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain Hamorrhage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스칼렛 오하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scarlett o'hara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로 진 피즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sloe Gin fizz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Americano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리언 브레인 해머릿지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alien Brain Hemorrhage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔젤 팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angel's tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예거밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jägerbomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준벅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>June Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 피즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cacao Fizz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵퍽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick Fuck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테네시 왈츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tennessee Waltz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸스 카페 레인보우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pusse Cafe Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피치 크러시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peach Crush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핌즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pimm's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex and zen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어원은 폭격기 이름인 B-52로 이름 그대로 슈터 계열의 강렬한 한 잔입니다. 해외에선 간단하게 BIFI라고 부릅니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유래는 1952년 미국의 프랭크 클라인이라는 바텐더가 한 커플의 부탁으로 직접 만들어 준 것이라고 탄생했습니다. 이때 프랭크 클라인이 일하고 있던 곳이 캘리포니아의 골드 컨트리(Gold Country of California)라 불리는 지역이였고, 여기서 이름이 유래된 것이라고 합니다. 맛은 갈리아노와 크렘 드 카카오가 들어가 전체적으로 부드럽고도 고급스러운 느낌을 주는 편입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색 빛깔을 띠고 있다고 하여 이런 이름이 붙었습니다. 맛은 민트의 향과 맛이 강하며 민트 초콜릿 아이스크림 맛 또는 박하사탕과도 유사하다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛은 오렌지 주스와 블루 큐라소가 섞여 절묘하고도 새콤달콤합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유에 커피 리큐르인 깔루아를 섞어 달콤하고 부드러우며 도수는 맥주와 비슷한 정도입니다. 우유를 섞는 양에 따라 도수는 달라지는데 깔루아의 달콤한 커피향과 우유의 부드러운 맛이 곁들여져서 술에 익숙하지 않은 사람들이 좋아합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜론 리큐르의 한 종류인 미도리를 사용해 만드는 유명한 칵테일입니다. 미도리 사와 또는 미도리 사워라고도 합니다. 달콤한 멜론맛인 미도리와 새콤한 레몬향이 어우러져서 상큼한 색깔과 맛을 연출하는 것이 특징입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 레시피는 평범한 '진 피즈'와 같지만 크렘 드 바이올렛을 사용하여 독특한 보라색과 화려한 꽃향기가 특징인 달콤한 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛은 들어가는 재료가 모두 단 맛이 나는 리큐르가 들어가서 매우 달며 베일리스가 들어가 있어 약간의 크리미함도 느껴질 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤하고 부드러우나 베일리스에 포함된 아이리쉬 위스키 특유의 쓴맛이 약간 있습니다. 부드러운 맛으로 부담 없이 넘길 수 있는 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velvet Hammer - ver2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨벳 해머 - ver2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽키 브레인이라 불리기도 합니다. 이름의 뜻은 뇌출혈이며, 실제 칵테일의 모습도 마치 뇌에서 피가 흐르는 생김새입니다. 마셨을 때의 느낌이 마치 입안에 가래를 머금은 듯한 느낌이라  식감이 좋은 편은 아니라고 합니다. 하지만 맛은 나쁘지 않다. 그레나딘 시럽과 베일리스 등등 모두 달콤한 리큐르만 들어가기 때문에 무척 단 맛이 나는 편입니다. 단 것을 좋아하는 사람에게는 적합한 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 색의 우아한 느낌을 주는 칵테일로 소설과 영화로 유명한 바람과 함께 사라지다에서 주인공인 스칼렛 오하라가 마신 칵테일에 그 이름을 붙여 만들어진 것이라 합니다. 맛은 서던 컴포트의 복숭아 향과 크랜베리 주스 그리고 라임의 상큼함이 조화를 이룹니다. 버전이 두 가지로 나뉘는데 콜린스 글라스를 사용하는 롱 드링크 버전과 마티니 글라스를 사용하는 숏 드링크 버전이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자두의 일종인 슬로베리를 넣어 숙성시킨 슬로 진을 이용한 칵테일입니다. 기본적인 레시피는 '진 피즈'에서 진을 슬로진으로 변경한 것입니다. 그래서 맛이 진 피즈에 새콤한 맛을 살짝 더한 느낌이라고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아에서 베르무트에 소다수를 혼합한 것을 미국인들이 좋아해서 이를 두고 미국을 이미지화해서 이름을 붙인 것입니다. 주로 식전주로 쓰인다고 합니다. 원래는 비터 베르무트라는 쓴 맛이 나는 베르무트를 사용하지만 이후 캄파리를 사용하는 것으로 레시피가 바뀌었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이름의 뜻은 외계인의 뇌출혈이다. 브레인 해머릿지에서 블루 큐라소만 추가된 버전입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카카오 리큐르에 동량의 식물성 크림을 얇게 올려 만드는 칵테일입니다. 장식용 체리를 글라스에 살짝 담궜다 빼내면 크림의 층이 움직이면서 입술 모양과 비슷한 모양을 남긴다고 하여 '엔젤 키스'라는 별칭이 있습니다. 물론 엔젤 키스라는 칵테일은 따로 있습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리큐르인 예거마이스터와 에너지 드링크인 레드불을 섞어서 만드는 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔 가장자리에 설탕을 묻혀두는데 잔 가장자리에 묻은 설탕을 핥아먹는 모습 때문에 야한 칵테일로 통합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월의 벌레라는 이름의 칵테일이지만 벌레보다는 6월의 푸르름을 표현한 칵테일입니다. 6월에 자주 등장하는 초록꽃무지에서 유래됐다는 이야기도 있습니다. 향과 맛이 달콤하기로 유명한 리큐르인 말리부가 들어가서 달달한 맛을 냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오를 넣어 숙성시켜 맛과 향을 첨가한 크렘 드 카카오을 이용한 칵테일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도수가 높지만 맛은 달콤해서 비교적 빠르게 마시게 되는 칵테일인데 마시는 당신을 빠르게 침대로 보내서 본 작업에 들어가게 해 버린다는 의미의 위트 있는 작명이라는 평가가 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1949년, 이후 일본 바텐더 협회장이 된 하세가와 유키야스가 '술과 음악'이라는 잡지에 투고하여 유명해진 칵테일입니다. 국내에서는 잘 취급도지 않는 칵테일 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레인보우' 라는 이름으로 불리지만 정확한 이름은 '푸스 카페 레인보우'이며, 이름 그대로 7가지의 술이 들어가고 전부 섞이지 않게 올려야 하는 고난이도의 칵테일입니다. 샷 글라스를 이용해서 한번에 다 마십니다. 7개의 술을 사용하고 색을 더 구분하기 위해 원액에 가까운 상태로 만들어서 맛은 난잡해서 추천하지는 않습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 향이 살짝 나며 맛은 약간 새콤한 맛입니다. 도수가 매우 낮아서 여성들에게 인기가 많은 칵테일입니다. 가끔 진짜 복숭아를 으깨서 넣는 경우도 있다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국의 술이자 리큐르 베이스인 동명의 칵테일의 명칭입니다. 영국에서 여름철에 굉장히 많이 소비되는 칵테일로 특히 야외활동을 할 때 자주 마신다고 합니다. 펀치류에 해당하는 칵테일의 특성상 재료를 크게 따지지 않아서 재료가 추가되거나 제외되기도 하지만 오이와 과일, 민트는 반드시 포함됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 칵테일의 이름은 마시고 난 뒤에 마치 사막에서 물을 찾는 듯한 느낌을 들게 해서 유래되었습니다. 맛도 이름처럼 매우 맵다고 합니다. 정확히는 플로팅을 사용하는 칵테일이지만 플로팅을 하지 않아도 맛은 변하지 않습니다. 여담으로 바카디 151을 섞어 넣으면 'Hello on the Earth'라는 칵테일이 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라 선라이즈가 태양이 뜨는 것을 모티브로 한 것과는 반대로 석양을 모티브로 한 칵테일입니다. 그렇기 때문에 그레나딘 시럽이 위쪽에 부어지는 그라데이션을 볼 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넣어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocktail_pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1657,7 +2117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1733,13 +2193,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1787,10 +2256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2071,28 +2543,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="3" max="3" width="27.59765625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="8.796875" style="6"/>
+    <col min="3" max="3" width="27.59765625" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2109,965 +2581,923 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="17"/>
+      <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
+      <c r="A18" s="17"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="6">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="6">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="6">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="6">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="6">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="6">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="6">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29"/>
+      <c r="A29" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="B29" s="6">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>142</v>
+        <v>103</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30"/>
       <c r="B30" s="6">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31"/>
       <c r="B31" s="6">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32"/>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="6">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="6">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="6">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>92</v>
+      <c r="C36" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>93</v>
+      <c r="C37" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="6">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="6">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="6">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="6">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>154</v>
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
       </c>
       <c r="F41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="6">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>155</v>
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
       </c>
       <c r="F42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="6">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>155</v>
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>168</v>
       </c>
       <c r="F43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="6">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
       </c>
       <c r="F44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>102</v>
-      </c>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="6">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>157</v>
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>170</v>
       </c>
       <c r="F45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="6">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>158</v>
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="6">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>173</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="6">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>161</v>
+        <v>122</v>
+      </c>
+      <c r="E48" t="s">
+        <v>174</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B49" s="6">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>162</v>
+        <v>123</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B50" s="6">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>176</v>
       </c>
       <c r="F50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B51" s="6">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>177</v>
       </c>
       <c r="F51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>163</v>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" t="s">
+        <v>178</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B53" s="6">
         <v>52</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>164</v>
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
+        <v>179</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B54" s="6">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
+        <v>180</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B55" s="6">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>166</v>
+        <v>129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>167</v>
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>202</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B57" s="6">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B58" s="6">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B59" s="6">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>404</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B60" s="6">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>444</v>
+      </c>
+      <c r="D60" t="s">
+        <v>443</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B61" s="6">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B62" s="6">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="F62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B63" s="6">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B64" s="6">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
@@ -3078,10 +3508,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>177</v>
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
+        <v>210</v>
       </c>
       <c r="F65" t="s">
         <v>55</v>
@@ -3092,10 +3522,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="F66" t="s">
         <v>55</v>
@@ -3106,10 +3536,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
         <v>55</v>
@@ -3120,10 +3550,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="F68" t="s">
         <v>55</v>
@@ -3134,24 +3564,27 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
-        <v>128</v>
+      <c r="C70" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F70" t="s">
         <v>55</v>
@@ -3161,28 +3594,25 @@
       <c r="B71" s="6">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
-        <v>129</v>
+      <c r="C71" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
-        <v>185</v>
+      <c r="C72" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F72" t="s">
         <v>55</v>
@@ -3192,11 +3622,11 @@
       <c r="B73" s="6">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
-        <v>186</v>
+      <c r="C73" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F73" t="s">
         <v>55</v>
@@ -3206,25 +3636,28 @@
       <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
-        <v>187</v>
+      <c r="C74" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F74" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="B75" s="6">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
-        <v>188</v>
-      </c>
-      <c r="E75" t="s">
-        <v>208</v>
+      <c r="C75" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="F75" t="s">
         <v>55</v>
@@ -3234,11 +3667,11 @@
       <c r="B76" s="6">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
-        <v>189</v>
+      <c r="C76" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F76" t="s">
         <v>55</v>
@@ -3248,11 +3681,11 @@
       <c r="B77" s="6">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
-        <v>190</v>
+      <c r="C77" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="F77" t="s">
         <v>55</v>
@@ -3262,11 +3695,11 @@
       <c r="B78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
-        <v>191</v>
+      <c r="C78" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="F78" t="s">
         <v>55</v>
@@ -3276,11 +3709,11 @@
       <c r="B79" s="6">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
-        <v>192</v>
+      <c r="C79" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F79" t="s">
         <v>55</v>
@@ -3290,11 +3723,11 @@
       <c r="B80" s="6">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
-        <v>193</v>
+      <c r="C80" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="E80" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="F80" t="s">
         <v>55</v>
@@ -3304,11 +3737,11 @@
       <c r="B81" s="6">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
-        <v>194</v>
+      <c r="C81" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F81" t="s">
         <v>55</v>
@@ -3318,11 +3751,11 @@
       <c r="B82" s="6">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
-        <v>198</v>
+      <c r="C82" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F82" t="s">
         <v>55</v>
@@ -3332,11 +3765,11 @@
       <c r="B83" s="6">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
-        <v>195</v>
+      <c r="C83" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
         <v>55</v>
@@ -3346,11 +3779,11 @@
       <c r="B84" s="6">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
-        <v>196</v>
+      <c r="C84" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
         <v>55</v>
@@ -3360,28 +3793,25 @@
       <c r="B85" s="6">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
-        <v>197</v>
+      <c r="C85" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="B86" s="6">
         <v>85</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>200</v>
+      <c r="C86" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="E86" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F86" t="s">
         <v>55</v>
@@ -3391,11 +3821,11 @@
       <c r="B87" s="6">
         <v>86</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>201</v>
+      <c r="C87" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="F87" t="s">
         <v>55</v>
@@ -3405,11 +3835,11 @@
       <c r="B88" s="6">
         <v>87</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>202</v>
+      <c r="C88" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="E88" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F88" t="s">
         <v>55</v>
@@ -3419,11 +3849,11 @@
       <c r="B89" s="6">
         <v>88</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>203</v>
+      <c r="C89" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="E89" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F89" t="s">
         <v>55</v>
@@ -3433,709 +3863,1520 @@
       <c r="B90" s="6">
         <v>89</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>204</v>
+      <c r="C90" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" t="s">
+        <v>375</v>
       </c>
       <c r="E90" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="F90" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="B91" s="6">
         <v>90</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>250</v>
+      <c r="C91" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" t="s">
+        <v>263</v>
+      </c>
+      <c r="F91" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B92" s="6">
         <v>91</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>232</v>
+      <c r="C92" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>264</v>
+      </c>
+      <c r="F92" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B93" s="6">
         <v>92</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>233</v>
+      <c r="C93" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>252</v>
+        <v>265</v>
+      </c>
+      <c r="F93" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="B94" s="6">
         <v>93</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>234</v>
+      <c r="C94" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="E94" t="s">
-        <v>253</v>
+        <v>290</v>
+      </c>
+      <c r="F94" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B95" s="6">
         <v>94</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>235</v>
+      <c r="C95" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>254</v>
+        <v>291</v>
+      </c>
+      <c r="F95" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B96" s="6">
         <v>95</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>236</v>
+      <c r="C96" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+        <v>292</v>
+      </c>
+      <c r="F96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="6">
         <v>96</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>237</v>
+      <c r="C97" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+      <c r="F97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="6">
         <v>97</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>238</v>
+      <c r="C98" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="E98" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+      <c r="F98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="6">
         <v>98</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>239</v>
+      <c r="C99" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="E99" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+      <c r="F99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="6">
         <v>99</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>240</v>
+      <c r="C100" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+      <c r="F100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="6">
         <v>100</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>241</v>
+      <c r="C101" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="E101" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+        <v>296</v>
+      </c>
+      <c r="F101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="6">
         <v>101</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>242</v>
+      <c r="C102" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+      <c r="F102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="6">
         <v>102</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>243</v>
+      <c r="C103" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+      <c r="F103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="6">
         <v>103</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>244</v>
+      <c r="C104" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+      <c r="F104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="6">
         <v>104</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>245</v>
+      <c r="C105" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+      <c r="F105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="6">
         <v>105</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>246</v>
+      <c r="C106" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+      <c r="F106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="6">
         <v>106</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>247</v>
+      <c r="C107" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+      <c r="F107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108" s="6">
         <v>107</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>248</v>
+      <c r="C108" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="E108" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+      <c r="F108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109" s="6">
         <v>108</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>249</v>
+      <c r="C109" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="6" t="s">
-        <v>269</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110" s="6">
         <v>109</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>270</v>
+      <c r="C110" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="E110" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+        <v>306</v>
+      </c>
+      <c r="F110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111" s="6">
         <v>110</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>271</v>
+      <c r="C111" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+      <c r="F111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112" s="6">
         <v>111</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E112" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C112" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B113" s="6">
         <v>112</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>273</v>
+      <c r="C113" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="E113" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+      <c r="F113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B114" s="6">
         <v>113</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>274</v>
+      <c r="C114" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E114" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
+        <v>310</v>
+      </c>
+      <c r="F114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="B115" s="6">
         <v>114</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>275</v>
+      <c r="C115" t="s">
+        <v>312</v>
       </c>
       <c r="E115" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
+        <v>337</v>
+      </c>
+      <c r="F115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B116" s="6">
         <v>115</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>276</v>
+      <c r="C116" t="s">
+        <v>313</v>
       </c>
       <c r="E116" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
+        <v>338</v>
+      </c>
+      <c r="F116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B117" s="6">
         <v>116</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>277</v>
+      <c r="C117" t="s">
+        <v>314</v>
       </c>
       <c r="E117" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+      <c r="F117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B118" s="6">
         <v>117</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>278</v>
+      <c r="C118" t="s">
+        <v>315</v>
       </c>
       <c r="E118" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.4">
+        <v>340</v>
+      </c>
+      <c r="F118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B119" s="6">
         <v>118</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>279</v>
+      <c r="C119" t="s">
+        <v>316</v>
       </c>
       <c r="E119" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.4">
+        <v>341</v>
+      </c>
+      <c r="F119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B120" s="6">
         <v>119</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>280</v>
+      <c r="C120" t="s">
+        <v>317</v>
       </c>
       <c r="E120" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.4">
+        <v>342</v>
+      </c>
+      <c r="F120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B121" s="6">
         <v>120</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>281</v>
+      <c r="C121" t="s">
+        <v>318</v>
       </c>
       <c r="E121" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.4">
+        <v>343</v>
+      </c>
+      <c r="F121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B122" s="6">
         <v>121</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>282</v>
+      <c r="C122" t="s">
+        <v>319</v>
       </c>
       <c r="E122" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.4">
+        <v>344</v>
+      </c>
+      <c r="F122" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B123" s="6">
         <v>122</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>283</v>
+      <c r="C123" t="s">
+        <v>320</v>
       </c>
       <c r="E123" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.4">
+        <v>345</v>
+      </c>
+      <c r="F123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B124" s="6">
         <v>123</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>284</v>
+      <c r="C124" t="s">
+        <v>321</v>
       </c>
       <c r="E124" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.4">
+        <v>346</v>
+      </c>
+      <c r="F124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B125" s="6">
         <v>124</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>285</v>
+      <c r="C125" t="s">
+        <v>322</v>
       </c>
       <c r="E125" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+      <c r="F125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B126" s="6">
         <v>125</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>286</v>
+      <c r="C126" t="s">
+        <v>323</v>
       </c>
       <c r="E126" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.4">
+        <v>348</v>
+      </c>
+      <c r="F126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B127" s="6">
         <v>126</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>287</v>
+      <c r="C127" t="s">
+        <v>324</v>
       </c>
       <c r="E127" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.4">
+        <v>349</v>
+      </c>
+      <c r="F127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B128" s="6">
         <v>127</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" t="s">
+        <v>360</v>
+      </c>
+      <c r="F128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B129" s="6">
         <v>128</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>289</v>
+      <c r="C129" t="s">
+        <v>326</v>
       </c>
       <c r="E129" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+      <c r="F129" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B130" s="6">
         <v>129</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>290</v>
+      <c r="C130" t="s">
+        <v>327</v>
       </c>
       <c r="E130" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A131" s="6" t="s">
-        <v>314</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="F130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B131" s="6">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E131" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+      <c r="F131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B132" s="6">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E132" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+      <c r="F132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B133" s="6">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E133" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+        <v>353</v>
+      </c>
+      <c r="F133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B134" s="6">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E134" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+        <v>354</v>
+      </c>
+      <c r="F134" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B135" s="6">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="E135" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+      <c r="F135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B136" s="6">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E136" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+        <v>356</v>
+      </c>
+      <c r="F136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B137" s="6">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E137" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+      <c r="F137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B138" s="6">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E138" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+      <c r="F138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B139" s="6">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E139" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+        <v>359</v>
+      </c>
+      <c r="F139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="B140" s="6">
         <v>139</v>
       </c>
-      <c r="C140" t="s">
-        <v>324</v>
+      <c r="C140" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D140" t="s">
+        <v>364</v>
       </c>
       <c r="E140" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+        <v>378</v>
+      </c>
+      <c r="F140" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B141" s="6">
         <v>140</v>
       </c>
-      <c r="C141" t="s">
-        <v>325</v>
+      <c r="C141" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D141" t="s">
+        <v>366</v>
       </c>
       <c r="E141" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+        <v>379</v>
+      </c>
+      <c r="F141" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B142" s="6">
         <v>141</v>
       </c>
-      <c r="C142" t="s">
-        <v>326</v>
-      </c>
-      <c r="E142" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C142" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D142" t="s">
+        <v>368</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B143" s="6">
         <v>142</v>
       </c>
-      <c r="C143" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C143" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D143" t="s">
+        <v>370</v>
+      </c>
+      <c r="E143" t="s">
+        <v>381</v>
+      </c>
+      <c r="F143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B144" s="6">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C144" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D144" t="s">
+        <v>372</v>
+      </c>
+      <c r="E144" t="s">
+        <v>382</v>
+      </c>
+      <c r="F144" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B145" s="6">
         <v>144</v>
       </c>
-      <c r="C145" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C145" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D145" t="s">
+        <v>374</v>
+      </c>
+      <c r="E145" t="s">
+        <v>383</v>
+      </c>
+      <c r="F145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B146" s="6">
         <v>145</v>
       </c>
-      <c r="C146" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C146" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D146" t="s">
+        <v>377</v>
+      </c>
+      <c r="E146" t="s">
+        <v>384</v>
+      </c>
+      <c r="F146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="B147" s="6">
         <v>146</v>
       </c>
-      <c r="C147" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C147" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E147" t="s">
+        <v>434</v>
+      </c>
+      <c r="F147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B148" s="6">
         <v>147</v>
       </c>
-      <c r="C148" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C148" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D148" t="s">
+        <v>389</v>
+      </c>
+      <c r="E148" t="s">
+        <v>435</v>
+      </c>
+      <c r="F148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B149" s="6">
         <v>148</v>
       </c>
-      <c r="C149" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C149" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D149" t="s">
+        <v>391</v>
+      </c>
+      <c r="E149" t="s">
+        <v>436</v>
+      </c>
+      <c r="F149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B150" s="6">
         <v>149</v>
       </c>
-      <c r="C150" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C150" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D150" t="s">
+        <v>393</v>
+      </c>
+      <c r="E150" t="s">
+        <v>437</v>
+      </c>
+      <c r="F150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B151" s="6">
         <v>150</v>
       </c>
-      <c r="C151" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C151" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D151" t="s">
+        <v>395</v>
+      </c>
+      <c r="E151" t="s">
+        <v>438</v>
+      </c>
+      <c r="F151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B152" s="6">
         <v>151</v>
       </c>
-      <c r="C152" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C152" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D152" t="s">
+        <v>397</v>
+      </c>
+      <c r="E152" t="s">
+        <v>439</v>
+      </c>
+      <c r="F152" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B153" s="6">
         <v>152</v>
       </c>
-      <c r="C153" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C153" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D153" t="s">
+        <v>399</v>
+      </c>
+      <c r="E153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B154" s="6">
         <v>153</v>
       </c>
-      <c r="C154" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C154" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D154" t="s">
+        <v>401</v>
+      </c>
+      <c r="E154" t="s">
+        <v>441</v>
+      </c>
+      <c r="F154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B155" s="6">
         <v>154</v>
       </c>
-      <c r="C155" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C155" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D155" t="s">
+        <v>403</v>
+      </c>
+      <c r="E155" t="s">
+        <v>442</v>
+      </c>
+      <c r="F155" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B156" s="6">
         <v>155</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D156" t="s">
+        <v>406</v>
+      </c>
+      <c r="E156" t="s">
+        <v>445</v>
+      </c>
+      <c r="F156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B157" s="6">
+        <v>156</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D157" t="s">
+        <v>408</v>
+      </c>
+      <c r="E157" t="s">
+        <v>446</v>
+      </c>
+      <c r="F157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B158" s="6">
+        <v>157</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D158" t="s">
+        <v>410</v>
+      </c>
+      <c r="E158" t="s">
+        <v>447</v>
+      </c>
+      <c r="F158" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B159" s="6">
+        <v>158</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D159" t="s">
+        <v>412</v>
+      </c>
+      <c r="E159" t="s">
+        <v>448</v>
+      </c>
+      <c r="F159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B160" s="6">
+        <v>159</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D160" t="s">
+        <v>414</v>
+      </c>
+      <c r="E160" t="s">
+        <v>449</v>
+      </c>
+      <c r="F160" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B161" s="6">
+        <v>160</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D161" t="s">
+        <v>416</v>
+      </c>
+      <c r="E161" t="s">
+        <v>450</v>
+      </c>
+      <c r="F161" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B162" s="6">
+        <v>161</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D162" t="s">
+        <v>418</v>
+      </c>
+      <c r="E162" t="s">
+        <v>451</v>
+      </c>
+      <c r="F162" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B163" s="6">
+        <v>162</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" t="s">
+        <v>433</v>
+      </c>
+      <c r="E163" t="s">
+        <v>452</v>
+      </c>
+      <c r="F163" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B164" s="6">
+        <v>163</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D164" t="s">
+        <v>420</v>
+      </c>
+      <c r="E164" t="s">
+        <v>453</v>
+      </c>
+      <c r="F164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B165" s="6">
+        <v>164</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D165" t="s">
+        <v>422</v>
+      </c>
+      <c r="E165" t="s">
+        <v>454</v>
+      </c>
+      <c r="F165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B166" s="6">
+        <v>165</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D166" t="s">
+        <v>424</v>
+      </c>
+      <c r="E166" t="s">
+        <v>455</v>
+      </c>
+      <c r="F166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B167" s="6">
+        <v>166</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D167" t="s">
+        <v>426</v>
+      </c>
+      <c r="E167" t="s">
+        <v>456</v>
+      </c>
+      <c r="F167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B168" s="6">
+        <v>167</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D168" t="s">
+        <v>428</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="F168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B169" s="6">
+        <v>168</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D169" t="s">
+        <v>430</v>
+      </c>
+      <c r="E169" t="s">
+        <v>458</v>
+      </c>
+      <c r="F169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B170" s="6">
+        <v>169</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D170" t="s">
+        <v>432</v>
+      </c>
+      <c r="E170" t="s">
+        <v>459</v>
+      </c>
+      <c r="F170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B171" s="6">
+        <v>170</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F171" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B172" s="6">
+        <v>171</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B173" s="6">
+        <v>172</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>41</v>
+      </c>
+      <c r="F173" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B174" s="6">
+        <v>173</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B175" s="6">
+        <v>174</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B176" s="6">
+        <v>175</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B177" s="6">
+        <v>176</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" t="s">
+        <v>43</v>
+      </c>
+      <c r="F177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B178" s="6">
+        <v>177</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>34</v>
+      </c>
+      <c r="E178" t="s">
+        <v>44</v>
+      </c>
+      <c r="F178" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B179" s="6">
+        <v>178</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" t="s">
+        <v>45</v>
+      </c>
+      <c r="F179" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B180" s="6">
+        <v>179</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" t="s">
+        <v>46</v>
+      </c>
+      <c r="F180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B181" s="6">
+        <v>180</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D181" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" t="s">
+        <v>47</v>
+      </c>
+      <c r="F181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B182" s="6">
+        <v>181</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" t="s">
+        <v>48</v>
+      </c>
+      <c r="F182" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B183" s="6">
+        <v>182</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" t="s">
+        <v>49</v>
+      </c>
+      <c r="F183" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B184" s="6">
+        <v>183</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D184" t="s">
+        <v>30</v>
+      </c>
+      <c r="E184" t="s">
+        <v>51</v>
+      </c>
+      <c r="F184" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B185" s="6">
+        <v>184</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B186" s="6">
+        <v>185</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D186" t="s">
+        <v>32</v>
+      </c>
+      <c r="E186" t="s">
+        <v>53</v>
+      </c>
+      <c r="F186" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4143,8 +5384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4927,7 +6168,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5129,10 +6370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5142,18 +6383,18 @@
     <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>467</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5163,131 +6404,143 @@
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5296,6 +6549,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
         <v>31</v>
       </c>
     </row>

--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="468">
   <si>
     <t>기저 주류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6373,7 +6373,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6401,9 +6401,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2">
         <v>1</v>
       </c>
@@ -6443,154 +6441,82 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
-      <c r="B8" s="6">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="B9" s="6">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
-      <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="6">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="C25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="2" r:id="rId1"/>
-    <sheet name="article-alcohol" sheetId="4" r:id="rId2"/>
-    <sheet name="alcohol" sheetId="6" r:id="rId3"/>
-    <sheet name="ingredient" sheetId="1" r:id="rId4"/>
-    <sheet name="recipe" sheetId="3" r:id="rId5"/>
+    <sheet name="recipe" sheetId="3" r:id="rId2"/>
+    <sheet name="article-alcohol" sheetId="4" r:id="rId3"/>
+    <sheet name="alcohol" sheetId="6" r:id="rId4"/>
+    <sheet name="ingredient" sheetId="1" r:id="rId5"/>
     <sheet name="cup" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="499">
   <si>
     <t>기저 주류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2030,23 +2030,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>넣어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>섞어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마셔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cocktail_pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라 사워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desert water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acouplecooks.com/wp-content/uploads/2020/04/Tequila-Sour-005.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tequila sour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tequila sunrise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데저트워터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칵테일 쉐이커에 얼음을 넣고 30 초 동안 다시 흔듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acouplecooks.com/wp-content/uploads/2020/04/Tequila-Sunrise-003.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수를 잔에 넣고 라임이나 체리로 가니쉬합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가니쉬로 라임, 체리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레나딘 시럽을 음료 중앙에 부으면 바닥에 가라 앉습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일출 그라데이션 효과를 위해 부드럽게 저어주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음없이 칵테일 셰이커에 재료를 넣고 15 초 동안 흔들어 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이볼 잔에 얼음을 채웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라와 오렌지 주스를 붓고 저어주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가니쉬로 오렌지, 체리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지 슬라이스와 체리로 가니쉬 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tequila sunset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hips.hearstapps.com/del.h-cdn.co/assets/15/36/1441227327-thirsty-thursday-tequila-sunrise.jpg?crop=0.4444444444444444xw:1xh;center,top&amp;resize=980:*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.haveacocktail.com/images/da/7081.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tequila stone sour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라 선셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라와 레몬 주스를 붓고 저어주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일몰 그라데이션 효과를 위해 부드럽게 저어주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라 스톤 사워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온더락 잔에 부어 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tequila slammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/3c/8e/dd/3c8edd5dc88ba624ede5644c6c078c35.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라 위에 탄산수를 따라주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔의 주둥이를 냅킨으로 덮고 손바닥으로 감싸 쥐고 테이블에 내려칩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라 토닉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2054,7 +2178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2108,13 +2232,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -2203,12 +2342,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2263,9 +2405,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2543,21 +2692,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="6"/>
-    <col min="3" max="3" width="27.59765625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="3" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2579,16 +2730,22 @@
       <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
+      <c r="C2" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2" t="s">
+        <v>465</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>461</v>
@@ -2596,14 +2753,20 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>464</v>
+      </c>
+      <c r="D3" t="s">
+        <v>467</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>131</v>
@@ -2611,8 +2774,14 @@
       <c r="F3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="17"/>
       <c r="B4" s="6">
         <v>3</v>
@@ -2620,14 +2789,23 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
+      <c r="D4" t="s">
+        <v>468</v>
+      </c>
       <c r="E4" s="14" t="s">
         <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="6">
         <v>4</v>
@@ -2635,14 +2813,23 @@
       <c r="C5" t="s">
         <v>77</v>
       </c>
+      <c r="D5" t="s">
+        <v>485</v>
+      </c>
       <c r="E5" s="14" t="s">
         <v>462</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="6">
         <v>5</v>
@@ -2650,14 +2837,20 @@
       <c r="C6" t="s">
         <v>78</v>
       </c>
+      <c r="D6" t="s">
+        <v>488</v>
+      </c>
       <c r="E6" s="14" t="s">
         <v>133</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -2665,14 +2858,20 @@
       <c r="C7" t="s">
         <v>79</v>
       </c>
+      <c r="D7" t="s">
+        <v>494</v>
+      </c>
       <c r="E7" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="17"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -2687,7 +2886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -2702,7 +2901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="17"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -2717,7 +2916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="6">
         <v>10</v>
@@ -2732,7 +2931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -2747,7 +2946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -2762,7 +2961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -2777,7 +2976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -2792,7 +2991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -5375,17 +5574,1688 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="6">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G9" s="6">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="6">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>478</v>
+      </c>
+      <c r="G12" s="6">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" s="6">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G14" s="6">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>480</v>
+      </c>
+      <c r="G15" s="6">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>493</v>
+      </c>
+      <c r="G16" s="6">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>496</v>
+      </c>
+      <c r="G17" s="6">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>497</v>
+      </c>
+      <c r="G18" s="6">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="6">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" s="6">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G20" s="6">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G21" s="6">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G22" s="6">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G23" s="6">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G24" s="6">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G25" s="6">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G26" s="6">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G27" s="6">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G28" s="6">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G29" s="6">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G30" s="6">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G31" s="6">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G32" s="6">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G33" s="6">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G34" s="6">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="G35" s="6">
+        <v>35</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="G36" s="6">
+        <v>36</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G37" s="6">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G38" s="6">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G39" s="6">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G40" s="6">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G41" s="6">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G42" s="6">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G43" s="6">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G44" s="6">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G45" s="6">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G46" s="6">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G47" s="6">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G48" s="6">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G49" s="6">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G50" s="6">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G51" s="6">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G52" s="6">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G53" s="6">
+        <v>53</v>
+      </c>
+      <c r="H53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G54" s="6">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G55" s="6">
+        <v>55</v>
+      </c>
+      <c r="H55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G56" s="6">
+        <v>56</v>
+      </c>
+      <c r="H56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G57" s="6">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G58" s="6">
+        <v>58</v>
+      </c>
+      <c r="H58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G59" s="6">
+        <v>59</v>
+      </c>
+      <c r="H59" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G60" s="6">
+        <v>60</v>
+      </c>
+      <c r="H60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G61" s="6">
+        <v>61</v>
+      </c>
+      <c r="H61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G62" s="6">
+        <v>62</v>
+      </c>
+      <c r="H62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G63" s="6">
+        <v>63</v>
+      </c>
+      <c r="H63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G64" s="6">
+        <v>64</v>
+      </c>
+      <c r="H64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G65" s="6">
+        <v>65</v>
+      </c>
+      <c r="H65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G66" s="6">
+        <v>66</v>
+      </c>
+      <c r="H66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G67" s="6">
+        <v>67</v>
+      </c>
+      <c r="H67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G68" s="6">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G69" s="6">
+        <v>69</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G70" s="6">
+        <v>70</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G71" s="6">
+        <v>71</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G72" s="6">
+        <v>72</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G73" s="6">
+        <v>73</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G74" s="6">
+        <v>74</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G75" s="6">
+        <v>75</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G76" s="6">
+        <v>76</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G77" s="6">
+        <v>77</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G78" s="6">
+        <v>78</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G79" s="6">
+        <v>79</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G80" s="6">
+        <v>80</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G81" s="6">
+        <v>81</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G82" s="6">
+        <v>82</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G83" s="6">
+        <v>83</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G84" s="6">
+        <v>84</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G85" s="6">
+        <v>85</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G86" s="6">
+        <v>86</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G87" s="6">
+        <v>87</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G88" s="6">
+        <v>88</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G89" s="6">
+        <v>89</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G90" s="6">
+        <v>90</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G91" s="6">
+        <v>91</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G92" s="6">
+        <v>92</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G93" s="6">
+        <v>93</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G94" s="6">
+        <v>94</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G95" s="6">
+        <v>95</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G96" s="6">
+        <v>96</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G97" s="6">
+        <v>97</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G98" s="6">
+        <v>98</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G99" s="6">
+        <v>99</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G100" s="6">
+        <v>100</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G101" s="6">
+        <v>101</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G102" s="6">
+        <v>102</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G103" s="6">
+        <v>103</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G104" s="6">
+        <v>104</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G105" s="6">
+        <v>105</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G106" s="6">
+        <v>106</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G107" s="6">
+        <v>107</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G108" s="6">
+        <v>108</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G109" s="6">
+        <v>109</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G110" s="6">
+        <v>110</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G111" s="6">
+        <v>111</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G112" s="6">
+        <v>112</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G113" s="6">
+        <v>113</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G114" s="6">
+        <v>114</v>
+      </c>
+      <c r="H114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G115" s="6">
+        <v>115</v>
+      </c>
+      <c r="H115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G116" s="6">
+        <v>116</v>
+      </c>
+      <c r="H116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G117" s="6">
+        <v>117</v>
+      </c>
+      <c r="H117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G118" s="6">
+        <v>118</v>
+      </c>
+      <c r="H118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G119" s="6">
+        <v>119</v>
+      </c>
+      <c r="H119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G120" s="6">
+        <v>120</v>
+      </c>
+      <c r="H120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G121" s="6">
+        <v>121</v>
+      </c>
+      <c r="H121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G122" s="6">
+        <v>122</v>
+      </c>
+      <c r="H122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G123" s="6">
+        <v>123</v>
+      </c>
+      <c r="H123" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G124" s="6">
+        <v>124</v>
+      </c>
+      <c r="H124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G125" s="6">
+        <v>125</v>
+      </c>
+      <c r="H125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G126" s="6">
+        <v>126</v>
+      </c>
+      <c r="H126" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G127" s="6">
+        <v>127</v>
+      </c>
+      <c r="H127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G128" s="6">
+        <v>128</v>
+      </c>
+      <c r="H128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G129" s="6">
+        <v>129</v>
+      </c>
+      <c r="H129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G130" s="6">
+        <v>130</v>
+      </c>
+      <c r="H130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G131" s="6">
+        <v>131</v>
+      </c>
+      <c r="H131" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G132" s="6">
+        <v>132</v>
+      </c>
+      <c r="H132" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G133" s="6">
+        <v>133</v>
+      </c>
+      <c r="H133" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G134" s="6">
+        <v>134</v>
+      </c>
+      <c r="H134" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G135" s="6">
+        <v>135</v>
+      </c>
+      <c r="H135" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G136" s="6">
+        <v>136</v>
+      </c>
+      <c r="H136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G137" s="6">
+        <v>137</v>
+      </c>
+      <c r="H137" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G138" s="6">
+        <v>138</v>
+      </c>
+      <c r="H138" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G139" s="6">
+        <v>139</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G140" s="6">
+        <v>140</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G141" s="6">
+        <v>141</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G142" s="6">
+        <v>142</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G143" s="6">
+        <v>143</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G144" s="6">
+        <v>144</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G145" s="6">
+        <v>145</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G146" s="6">
+        <v>146</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G147" s="6">
+        <v>147</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G148" s="6">
+        <v>148</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G149" s="6">
+        <v>149</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G150" s="6">
+        <v>150</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G151" s="6">
+        <v>151</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G152" s="6">
+        <v>152</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G153" s="6">
+        <v>153</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G154" s="6">
+        <v>154</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G155" s="6">
+        <v>155</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G156" s="6">
+        <v>156</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G157" s="6">
+        <v>157</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G158" s="6">
+        <v>158</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G159" s="6">
+        <v>159</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G160" s="6">
+        <v>160</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G161" s="6">
+        <v>161</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G162" s="6">
+        <v>162</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G163" s="6">
+        <v>163</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G164" s="6">
+        <v>164</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G165" s="6">
+        <v>165</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G166" s="6">
+        <v>166</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G167" s="6">
+        <v>167</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G168" s="6">
+        <v>168</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G169" s="6">
+        <v>169</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G170" s="6">
+        <v>170</v>
+      </c>
+      <c r="H170" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G171" s="6">
+        <v>171</v>
+      </c>
+      <c r="H171" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G172" s="6">
+        <v>172</v>
+      </c>
+      <c r="H172" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G173" s="6">
+        <v>173</v>
+      </c>
+      <c r="H173" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G174" s="6">
+        <v>174</v>
+      </c>
+      <c r="H174" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G175" s="6">
+        <v>175</v>
+      </c>
+      <c r="H175" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G176" s="6">
+        <v>176</v>
+      </c>
+      <c r="H176" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G177" s="6">
+        <v>177</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G178" s="6">
+        <v>178</v>
+      </c>
+      <c r="H178" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G179" s="6">
+        <v>179</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G180" s="6">
+        <v>180</v>
+      </c>
+      <c r="H180" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G181" s="6">
+        <v>181</v>
+      </c>
+      <c r="H181" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G182" s="6">
+        <v>182</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G183" s="6">
+        <v>183</v>
+      </c>
+      <c r="H183" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G184" s="6">
+        <v>184</v>
+      </c>
+      <c r="H184" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G185" s="6">
+        <v>185</v>
+      </c>
+      <c r="H185" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6163,7 +8033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -6191,7 +8061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -6361,162 +8231,6 @@
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\s04p12a401\DB\cocktailDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\gitlab\s04p12a401\DB\cocktailDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="627">
   <si>
     <t>기저 주류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2171,6 +2171,500 @@
   </si>
   <si>
     <t>데킬라 토닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무종류의 데킬라나 상관없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호세쿠엘보 에스페샬 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jose Cuervo Especial Gold Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_cue1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51퍼센트의 푸른 용설란 수액과 49퍼센트의 기타 용설란 수액을 재료로 한다. 밝은 황금색의 빛깔을 보여 숙성된 테킬라라 생각하기 쉽지만 사실 이 색깔은 캐러멜 등의 첨가물에 의한 것이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호세쿠엘보 트라디시오날 레포사도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jose Cuervo Tradicional Reposado Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_cue5.jpg</t>
+  </si>
+  <si>
+    <t>맑고 투명한 금색으로 다른 첨가물 없이 100% 블루 아가베 수액만을 사용하며 최소 2개월 동안 오크통에서 숙성을 거쳐 제조된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트론 실버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patron Silver Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_pat1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧은 숙성기간을 거쳐 부드럽고 깔끔한 맛을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트론 아녜호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patron Anejo Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_pat3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년간 숙성하여 진한 풍미를 내는 밝은 금색이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트론 레포사도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patron Reposado Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_pat2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트론 실버와 패트론 아녜호를 잘 혼합하여 6개월 정도 숙성한 술이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈홀리오 블랑코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don Julio Blanco Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_don1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨끗하고 깔끔한 맛으로 데킬라 칵테일에 잘어울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈훌리오 레포사도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don Julio Reposado Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_don3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤향으로 오크통에 8개월 숙성을 거친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈홀리오 아네호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don Julio Anejo Tequila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/teqla_don2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카라멜/감귤향으로 위스키가 숙성된 오크통에서 18개월을 숙성시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커레이 런던드라이 진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanqueray London Dry Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/gin_tan1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 향기가 나며 산뜻하고 드라이합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커레이 No.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanqueray No.10 Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/gin_tan5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤/자몽향으로 마티니에 어울립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드릭스 진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hendrick's Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/gin_hen15.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11가지 천연허브 원료와 불가리아산 장미 꽃잎, 네덜란드산 오이에서 추출한 오일을 중류과정에서 자연스럽게 스며들게한 진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄베이 사파이어 진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bombay Sapphire Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/gin_bom2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브, 약초향으로 토닉과 잘어울립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비피이터 진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beefeater Dry Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/gin_bee19.jpg</t>
+  </si>
+  <si>
+    <t>영국 런던의 런던탑을 지키는 요먼 경비대의 별명에서 따온 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고든스 런던 드라이 진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon's London Dry Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gordonsgin.com/media/837953/homepage-export-single-bottle.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국에서 생산되는 오래된 진으로, 라벨의 동물인 멧돼지는 고든 가문의 상징입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팜페로 블랑코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pampero Blanco Rum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/rum_pam4.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개월간 숙성을 거치고 모히또 스타일의 칵테일이 어울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자카파 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ron Zacapa Centenario Sistema Solera 23 Rum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/rum_ron1.jpg</t>
+  </si>
+  <si>
+    <t>높은 고도에서 숙성하고 6~23년 숙성된 ㄹ머을 블렌딩 합니다. 그 자체를 즐기는것이 좋은 술입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐리비안 럼으로 향신료와 천연재료에서 나오는 향이 훌륭합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡틴 모건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Captain Morgan Spiced Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/rum_cap2.jpg</t>
+  </si>
+  <si>
+    <t>플랜테이션 오리지널 다크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plantation Original Dark Rum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/rum_pla29.jpg</t>
+  </si>
+  <si>
+    <t>트로피컬한 칵테일 베이스로 추천합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디플로마티코 익스클루시바</t>
+  </si>
+  <si>
+    <t>Diplomatico Reserva Exclusiva Rum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/rum_dip1.jpg</t>
+  </si>
+  <si>
+    <t>니트 또는 온더락스타일로 그냥 먹거나 올드패션드로 만들어 먹는 것을 추천합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/rum_bac92.jpg</t>
+  </si>
+  <si>
+    <t>바카디 슈페리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bacardi Superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트럼으로 모히또를 만들어 마시는 것을 추천합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카차카 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cachaca 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라질 국민주로, 카이피리냐 칵테일 베이스로 잘 알려져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wine1865.co.kr/upload/p_image/b/P0714-677.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ketel One Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케텔 원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_ket1.jpg</t>
+  </si>
+  <si>
+    <t>온더락 스타일로 얼음과 라임 한조각을 넣어마신다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스미노프 No.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smirnoff Red Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_smi3.jpg</t>
+  </si>
+  <si>
+    <t>모스코뮬(moscow mule) 칵테일을 주로 만들어 먹는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스미노프 블랙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_smi14.jpg</t>
+  </si>
+  <si>
+    <t>보드카 토닉 스타일로 먹는 것을 추천한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smirnoff Black Label Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시로크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_cir2.jpg</t>
+  </si>
+  <si>
+    <t>Ciroc Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬 혹은 라임향이 난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱솔루트 오리지날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absolut Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_abs1.jpg</t>
+  </si>
+  <si>
+    <t>크렌베리 주스나 다른 주스에 섞어서 마시는 걸 추천합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_gre14.jpg</t>
+  </si>
+  <si>
+    <t>그레이 구스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grey Goose Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔한 맛, 부드러운 목 넘김이 특징이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨베디어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡맛이 없고 깔끔한 것이 특징으로 혀 끝에서 좀 더 순하며 부드러운 맛을 내고 키스 오브 파이어에 잘어울립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_bel50.jpg</t>
+  </si>
+  <si>
+    <t>Belvedere Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톨리치나야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stolichnaya Red Vodka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/vodka_sto5.jpg</t>
+  </si>
+  <si>
+    <t>밀과 호밀이 원재료인 러시아산 보드카의 대명사이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hennessy VS Cognac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤네시 VSOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/cognc_hen6.jpg</t>
+  </si>
+  <si>
+    <t>100여가지 이상 혼합하여 독특한 맛과 향을 창조하여 깊으면서도 잘 조화된 맛과 안정적이며 온화한 향으로 인정받는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2350,7 +2844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2409,6 +2903,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3287,7 +3784,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>35</v>
       </c>
@@ -5590,7 +6087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -8035,15 +8532,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8054,10 +8551,866 @@
         <v>2</v>
       </c>
       <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>503</v>
+      </c>
+      <c r="I3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>507</v>
+      </c>
+      <c r="I4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>511</v>
+      </c>
+      <c r="I5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>515</v>
+      </c>
+      <c r="I6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>519</v>
+      </c>
+      <c r="I7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" t="s">
+        <v>522</v>
+      </c>
+      <c r="G8">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>523</v>
+      </c>
+      <c r="I8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F9" t="s">
+        <v>526</v>
+      </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>527</v>
+      </c>
+      <c r="I9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F10" t="s">
+        <v>530</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>531</v>
+      </c>
+      <c r="I10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>536</v>
+      </c>
+      <c r="I11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" t="s">
+        <v>533</v>
+      </c>
+      <c r="E12" t="s">
+        <v>538</v>
+      </c>
+      <c r="F12" t="s">
+        <v>539</v>
+      </c>
+      <c r="G12">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>540</v>
+      </c>
+      <c r="I12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" t="s">
+        <v>542</v>
+      </c>
+      <c r="F13" t="s">
+        <v>543</v>
+      </c>
+      <c r="G13">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>544</v>
+      </c>
+      <c r="I13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>548</v>
+      </c>
+      <c r="I14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F15" t="s">
+        <v>551</v>
+      </c>
+      <c r="G15">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>552</v>
+      </c>
+      <c r="I15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" t="s">
+        <v>533</v>
+      </c>
+      <c r="E16" t="s">
+        <v>554</v>
+      </c>
+      <c r="F16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G16">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E17" t="s">
+        <v>559</v>
+      </c>
+      <c r="F17" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>561</v>
+      </c>
+      <c r="I17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>558</v>
+      </c>
+      <c r="E18" t="s">
+        <v>563</v>
+      </c>
+      <c r="F18" t="s">
+        <v>564</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>565</v>
+      </c>
+      <c r="I18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19" t="s">
+        <v>568</v>
+      </c>
+      <c r="F19" t="s">
+        <v>569</v>
+      </c>
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" t="s">
+        <v>571</v>
+      </c>
+      <c r="F20" t="s">
+        <v>572</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>573</v>
+      </c>
+      <c r="I20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" t="s">
+        <v>575</v>
+      </c>
+      <c r="F21" t="s">
+        <v>576</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>577</v>
+      </c>
+      <c r="I21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>558</v>
+      </c>
+      <c r="E22" t="s">
+        <v>580</v>
+      </c>
+      <c r="F22" t="s">
+        <v>581</v>
+      </c>
+      <c r="G22">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>579</v>
+      </c>
+      <c r="I22" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>558</v>
+      </c>
+      <c r="E23" t="s">
+        <v>583</v>
+      </c>
+      <c r="F23" t="s">
+        <v>584</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>586</v>
+      </c>
+      <c r="I23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D24" t="s">
+        <v>588</v>
+      </c>
+      <c r="E24" t="s">
+        <v>590</v>
+      </c>
+      <c r="F24" t="s">
+        <v>589</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>591</v>
+      </c>
+      <c r="I24" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D25" t="s">
+        <v>588</v>
+      </c>
+      <c r="E25" t="s">
+        <v>593</v>
+      </c>
+      <c r="F25" t="s">
+        <v>594</v>
+      </c>
+      <c r="G25">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>595</v>
+      </c>
+      <c r="I25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D26" t="s">
+        <v>588</v>
+      </c>
+      <c r="E26" t="s">
+        <v>597</v>
+      </c>
+      <c r="F26" t="s">
+        <v>600</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>598</v>
+      </c>
+      <c r="I26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D27" t="s">
+        <v>588</v>
+      </c>
+      <c r="E27" t="s">
+        <v>601</v>
+      </c>
+      <c r="F27" t="s">
+        <v>603</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>602</v>
+      </c>
+      <c r="I27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D28" t="s">
+        <v>588</v>
+      </c>
+      <c r="E28" t="s">
+        <v>605</v>
+      </c>
+      <c r="F28" t="s">
+        <v>606</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>607</v>
+      </c>
+      <c r="I28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E29" t="s">
+        <v>610</v>
+      </c>
+      <c r="F29" t="s">
+        <v>611</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>609</v>
+      </c>
+      <c r="I29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D30" t="s">
+        <v>588</v>
+      </c>
+      <c r="E30" t="s">
+        <v>613</v>
+      </c>
+      <c r="F30" t="s">
+        <v>616</v>
+      </c>
+      <c r="G30">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>615</v>
+      </c>
+      <c r="I30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D31" t="s">
+        <v>588</v>
+      </c>
+      <c r="E31" t="s">
+        <v>617</v>
+      </c>
+      <c r="F31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>621</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="D32" t="s">
+        <v>622</v>
+      </c>
+      <c r="E32" t="s">
+        <v>624</v>
+      </c>
+      <c r="F32" t="s">
+        <v>623</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>625</v>
+      </c>
+      <c r="I32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="D33" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="D34" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="2" r:id="rId1"/>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3287,7 +3287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>35</v>
       </c>
@@ -5590,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5599,6 +5599,7 @@
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8242,7 +8243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" tabRatio="756" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="9" r:id="rId1"/>
@@ -4422,7 +4422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -7603,7 +7603,7 @@
     <hyperlink ref="G14" r:id="rId12"/>
     <hyperlink ref="G15" r:id="rId13"/>
     <hyperlink ref="G16" r:id="rId14"/>
-    <hyperlink ref="G18"/>
+    <hyperlink ref="G18" display="https://www.liquor.com/thmb/sV0rYbLFAcGvdm4d4M8KGDRwJUE=/720x720/filters:no_upscale():max_bytes(150000):strip_icc()/__opt__aboutcom__coeus__resources__content_migration__liquor__2016__04__20130641__10-Essential-Cocktails-for-Cinco-de-Mayo-the-firecracker-"/>
     <hyperlink ref="G19" r:id="rId15"/>
     <hyperlink ref="G20" r:id="rId16"/>
     <hyperlink ref="G21" r:id="rId17"/>
@@ -7624,7 +7624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -8206,7 +8206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
@@ -10053,7 +10053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -13095,10 +13095,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13107,7 +13107,7 @@
     <col min="8" max="8" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -13147,8 +13147,12 @@
       <c r="I2" s="13" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" t="str">
+        <f>"INSERT INTO alcohol VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"')"</f>
+        <v>INSERT INTO alcohol VALUES('1','데킬라','Tequila')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -13174,7 +13178,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -13200,7 +13204,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -13226,7 +13230,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -13278,7 +13282,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
@@ -13304,7 +13308,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
@@ -13330,7 +13334,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>9</v>
       </c>
@@ -13356,7 +13360,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>273</v>
       </c>
@@ -13385,7 +13389,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>11</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>12</v>
       </c>
@@ -13437,7 +13441,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>13</v>
       </c>
@@ -13463,7 +13467,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>14</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>15</v>
       </c>

--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" tabRatio="756" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" tabRatio="756" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1032">
   <si>
     <t>기저 주류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1870,10 +1870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hendrick's Gin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://img.thewhiskyexchange.com/900/gin_hen15.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1909,10 +1905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gordon's London Dry Gin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.gordonsgin.com/media/837953/homepage-export-single-bottle.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2741,10 +2733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">아르메니아에서 생산된 브랜디로 호도 나무통에 숙성되고 아르메니아 고원지대에서만 생산되는 흰색 포도 '키시밋'품종으로 만들어졌습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>칼바도스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3765,10 +3753,6 @@
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무종류의 데킬라나 상관없습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3992,6 +3976,106 @@
   </si>
   <si>
     <t>https://images.absolutdrinks.com/drink-images/Raw/Absolut/344905eb-530b-4bd0-9f29-962b78cb7c43.jpg?imwidth=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데킬라는 멕시코를 대표하는 증류주로 알코올 농도는 35~55% 사이입니다. 주 재료는 멕시코 할리스코주의 데킬라를 둘러싼 지역에서만 서식하는 푸른 용설란입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.seoul.co.kr/img/upload/2019/10/17/SSI_20191017172529.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진은 호밀 등을 원료로 하여 독특한 향기를 내는 무색투명한 술로 40~47도입니다. 주로 베르무트라는 리큐르를 섞어 칵테일을 만들거나 라임주스나 토닉워터와 같은 음료를 섞어 마시기도 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리큐르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>럼주라고도 하며 사탕수수를 착즙해서 설탕을 만들고 남은 찌꺼기인 당밀이나 사탕수수 즙을 발표시켜 증류한 술입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/1569/9643/products/royal-standard-dry-white-rum_700x700.jpg?v=1571311097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동류업 원산의 증류수입니다. 러시아어로 물을 뜻하는 낱말에서 유래되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.saverglass.com/sites/default/files/img/2020-05/succ-grey-goose-intro.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과실을 발효한 술을 증류해서 만든 증류수 입니다. 알코올 도수는 35~60도 사이입니다. 과육을 쓰지 않고 과실의 껍질이나 압착 후 찌꺼기를 사용한 증류주도 브랜디에 속합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R800x0/?scode=mtistory2&amp;fname=https%3A%2F%2Ft1.daumcdn.net%2Fcfile%2Ftistory%2F277E8C4052DF899106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.japanherb.co.kr/data/item/1596678104/thumb-71x6RDD7G8L._AC_SL1500__465x550.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liqueur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혼합주의 하나로 알코올에 설탕, 식물, 향로 등을 섞어 만든 술입니다. 인기있는 향으로는 살구, 체리, 초콜릿, 오렌지, 복숭아, 페퍼민트가 있습니다. 당분이 2.5%이상 들어있고 도수가 13~55도 사이 입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수를 증류한 후 숙성시켜 만든 증류주로 미국 켄터키를 중심으로 생산되는 위스키입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assabeer.com/web/product/small/20191206/86c64fdd1b14788547639596d705b091.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hendrick\'s Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon\'s London Dry Gin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아르메니아에서 생산된 브랜디로 호도 나무통에 숙성되고 아르메니아 고원지대에서만 생산되는 흰색 포도 \'키시밋\'품종으로 만들어졌습니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4074,7 +4158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4084,6 +4168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4208,7 +4298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4287,13 +4377,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4580,40 +4673,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>984</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>988</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>45</v>
@@ -4624,19 +4718,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C2" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E2">
         <v>19900101</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>995</v>
+      <c r="F2" s="29" t="s">
+        <v>991</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4645,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K2" t="str">
         <f>"INSERT INTO user VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
@@ -4674,21 +4768,21 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
@@ -4721,7 +4815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S186"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -4747,49 +4841,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="25" t="s">
         <v>937</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="L1" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>427</v>
@@ -4845,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="S2" t="str">
         <f>"INSERT INTO article VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"','"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"','"&amp;P2&amp;"');"</f>
@@ -4861,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E3" t="s">
         <v>423</v>
@@ -4900,10 +4994,10 @@
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3:S26" si="0">"INSERT INTO article VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"');"</f>
@@ -4919,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E4" t="s">
         <v>432</v>
@@ -4946,7 +5040,7 @@
         <v>418</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -4958,7 +5052,7 @@
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
@@ -4974,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E5" t="s">
         <v>434</v>
@@ -5013,7 +5107,7 @@
         <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
@@ -5029,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E6" t="s">
         <v>437</v>
@@ -5053,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>438</v>
@@ -5068,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
@@ -5087,7 +5181,7 @@
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5111,7 +5205,7 @@
         <v>98</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -5123,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
@@ -5139,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" t="s">
         <v>547</v>
-      </c>
-      <c r="E8" t="s">
-        <v>549</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5166,7 +5260,7 @@
         <v>99</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -5178,7 +5272,7 @@
         <v>6</v>
       </c>
       <c r="Q8" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
@@ -5197,7 +5291,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5218,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -5233,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="0"/>
@@ -5249,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E10" t="s">
         <v>572</v>
-      </c>
-      <c r="E10" t="s">
-        <v>574</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5273,10 +5367,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -5288,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="Q10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
@@ -5304,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5331,7 +5425,7 @@
         <v>100</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -5343,7 +5437,7 @@
         <v>6</v>
       </c>
       <c r="Q11" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="0"/>
@@ -5359,10 +5453,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -5383,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -5398,7 +5492,7 @@
         <v>7</v>
       </c>
       <c r="Q12" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="0"/>
@@ -5417,7 +5511,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -5441,7 +5535,7 @@
         <v>101</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -5453,7 +5547,7 @@
         <v>7</v>
       </c>
       <c r="Q13" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="0"/>
@@ -5469,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" t="s">
         <v>590</v>
-      </c>
-      <c r="E14" t="s">
-        <v>592</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -5496,7 +5590,7 @@
         <v>102</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -5508,7 +5602,7 @@
         <v>8</v>
       </c>
       <c r="Q14" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="0"/>
@@ -5527,7 +5621,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -5551,7 +5645,7 @@
         <v>103</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -5563,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="0"/>
@@ -5582,7 +5676,7 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -5606,7 +5700,7 @@
         <v>104</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -5618,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="S16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5638,7 +5732,7 @@
         <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -5662,7 +5756,7 @@
         <v>105</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -5674,7 +5768,7 @@
         <v>5</v>
       </c>
       <c r="Q17" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="0"/>
@@ -5693,7 +5787,7 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -5717,7 +5811,7 @@
         <v>106</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -5729,7 +5823,7 @@
         <v>5</v>
       </c>
       <c r="Q18" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="0"/>
@@ -5748,7 +5842,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -5772,7 +5866,7 @@
         <v>107</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -5784,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="Q19" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="0"/>
@@ -5800,10 +5894,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -5824,10 +5918,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -5839,7 +5933,7 @@
         <v>7</v>
       </c>
       <c r="Q20" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="S20" t="str">
         <f t="shared" si="0"/>
@@ -5858,7 +5952,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -5879,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -5894,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="Q21" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="0"/>
@@ -5913,7 +6007,7 @@
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5937,7 +6031,7 @@
         <v>108</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -5968,7 +6062,7 @@
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5992,7 +6086,7 @@
         <v>109</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -6004,7 +6098,7 @@
         <v>5</v>
       </c>
       <c r="Q23" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="S23" t="str">
         <f t="shared" si="0"/>
@@ -6023,7 +6117,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -6047,7 +6141,7 @@
         <v>110</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -6059,7 +6153,7 @@
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="S24" t="str">
         <f t="shared" si="0"/>
@@ -6078,7 +6172,7 @@
         <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -6099,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -6114,7 +6208,7 @@
         <v>2</v>
       </c>
       <c r="Q25" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" si="0"/>
@@ -6133,7 +6227,7 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -6157,7 +6251,7 @@
         <v>111</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -6169,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="Q26" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="0"/>
@@ -10543,22 +10637,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -10566,25 +10660,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I2" t="str">
         <f>"INSERT INTO cup VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;F2&amp;"');"</f>
@@ -10596,25 +10690,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C3" t="s">
         <v>851</v>
-      </c>
-      <c r="C3" t="s">
-        <v>854</v>
       </c>
       <c r="D3">
         <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I21" si="0">"INSERT INTO cup VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;F3&amp;"');"</f>
@@ -10626,25 +10720,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D4">
         <v>360</v>
       </c>
       <c r="E4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -10656,25 +10750,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D5">
         <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -10686,25 +10780,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C6" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D6">
         <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -10716,25 +10810,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C7" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D7">
         <v>300</v>
       </c>
       <c r="E7" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -10746,25 +10840,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C8" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D8">
         <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -10776,25 +10870,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D9">
         <v>360</v>
       </c>
       <c r="E9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -10806,25 +10900,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D10">
         <v>420</v>
       </c>
       <c r="E10" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G10">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -10836,25 +10930,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C11" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D11">
         <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -10866,25 +10960,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C12" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D12">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G12">
         <v>1.5</v>
       </c>
       <c r="H12" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -10896,25 +10990,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C13" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D13">
         <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -10926,25 +11020,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C14" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D14">
         <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -10956,25 +11050,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C15" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -10986,25 +11080,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C16" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D16">
         <v>270</v>
       </c>
       <c r="E16" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G16">
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -11016,25 +11110,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C17" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D17">
         <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -11046,25 +11140,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D18">
         <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
@@ -11076,25 +11170,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C19" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D19">
         <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -11106,25 +11200,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C20" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D20">
         <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -11136,25 +11230,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C21" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D21">
         <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G21">
         <v>4.5</v>
       </c>
       <c r="H21" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
@@ -11211,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>419</v>
@@ -11240,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J2" t="str">
         <f>"INSERT INTO recipe VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;F2&amp;"','"&amp;E2&amp;"');"</f>
@@ -11258,7 +11352,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J66" si="0">"INSERT INTO recipe VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;F3&amp;"','"&amp;E3&amp;"');"</f>
@@ -11315,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
@@ -11351,7 +11445,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -11390,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
@@ -11408,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
@@ -11444,7 +11538,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -11483,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -11501,7 +11595,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -11522,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -11561,7 +11655,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -11579,7 +11673,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
@@ -11600,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -11618,7 +11712,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -11636,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -11654,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -11672,7 +11766,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -11687,13 +11781,13 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -11711,7 +11805,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -11729,7 +11823,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
@@ -11747,7 +11841,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -11765,7 +11859,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
@@ -11780,13 +11874,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -11804,7 +11898,7 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -11822,7 +11916,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
@@ -11840,7 +11934,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
@@ -11855,13 +11949,13 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
@@ -11879,7 +11973,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
@@ -11897,7 +11991,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
@@ -11912,13 +12006,13 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H38" s="6"/>
       <c r="J38" t="str">
@@ -11937,7 +12031,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H39" s="6"/>
       <c r="J39" t="str">
@@ -11956,7 +12050,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H40" s="6"/>
       <c r="J40" t="str">
@@ -11972,13 +12066,13 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="7"/>
@@ -11998,7 +12092,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="7"/>
@@ -12018,7 +12112,7 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="7"/>
@@ -12035,13 +12129,13 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="7"/>
@@ -12061,7 +12155,7 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="7"/>
@@ -12081,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="7"/>
@@ -12101,7 +12195,7 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="7"/>
@@ -12121,7 +12215,7 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="7"/>
@@ -12138,13 +12232,13 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="7"/>
@@ -12164,7 +12258,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="7"/>
@@ -12184,7 +12278,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="7"/>
@@ -12201,13 +12295,13 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="7"/>
@@ -12227,7 +12321,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="7"/>
@@ -12244,13 +12338,13 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="7"/>
@@ -12270,7 +12364,7 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -12290,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -12307,13 +12401,13 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -12333,7 +12427,7 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -12353,7 +12447,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -12375,7 +12469,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
@@ -12392,13 +12486,13 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
@@ -12418,7 +12512,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
@@ -12438,7 +12532,7 @@
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
@@ -12455,13 +12549,13 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
@@ -12481,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
@@ -12498,13 +12592,13 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
@@ -12524,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" ref="J67:J84" si="1">"INSERT INTO recipe VALUES('"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;F67&amp;"','"&amp;E67&amp;"');"</f>
@@ -12544,7 +12638,7 @@
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="1"/>
@@ -12564,7 +12658,7 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
@@ -12584,7 +12678,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="1"/>
@@ -12601,13 +12695,13 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
@@ -12627,7 +12721,7 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
@@ -12644,13 +12738,13 @@
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="1"/>
@@ -12670,7 +12764,7 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
@@ -12690,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
@@ -12707,13 +12801,13 @@
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
@@ -12733,7 +12827,7 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
@@ -12753,7 +12847,7 @@
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="1"/>
@@ -12770,7 +12864,7 @@
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -12796,7 +12890,7 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
@@ -12813,7 +12907,7 @@
         <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -12839,7 +12933,7 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
@@ -12859,7 +12953,7 @@
         <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
@@ -12879,7 +12973,7 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
@@ -13583,8 +13677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13600,39 +13694,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" t="s">
         <v>656</v>
-      </c>
-      <c r="D2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="F2" t="s">
-        <v>658</v>
       </c>
       <c r="H2" t="str">
         <f>"INSERT INTO ingredient VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"');"</f>
@@ -13645,16 +13739,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>661</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="F3" t="s">
-        <v>663</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H31" si="0">"INSERT INTO ingredient VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"');"</f>
@@ -13667,16 +13761,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>667</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="F4" t="s">
-        <v>669</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -13689,16 +13783,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" t="s">
         <v>670</v>
       </c>
-      <c r="D5" t="s">
-        <v>672</v>
-      </c>
       <c r="E5" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="F5" t="s">
         <v>671</v>
-      </c>
-      <c r="F5" t="s">
-        <v>673</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -13711,16 +13805,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="F6" t="s">
         <v>712</v>
-      </c>
-      <c r="D6" t="s">
-        <v>713</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="F6" t="s">
-        <v>715</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -13733,16 +13827,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="F7" t="s">
         <v>718</v>
-      </c>
-      <c r="D7" t="s">
-        <v>719</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="F7" t="s">
-        <v>721</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -13755,16 +13849,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F8" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -13777,16 +13871,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D9" t="s">
+        <v>730</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="F9" t="s">
         <v>731</v>
-      </c>
-      <c r="D9" t="s">
-        <v>733</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="F9" t="s">
-        <v>734</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -13799,16 +13893,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>732</v>
+      </c>
+      <c r="D10" t="s">
+        <v>733</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="F10" t="s">
         <v>735</v>
-      </c>
-      <c r="D10" t="s">
-        <v>736</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="F10" t="s">
-        <v>738</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -13821,16 +13915,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -13843,16 +13937,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D12" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F12" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -13865,16 +13959,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D13" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F13" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -13887,16 +13981,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F14" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -13909,16 +14003,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D15" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F15" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -13931,16 +14025,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D16" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F16" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -13953,16 +14047,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D17" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -13974,16 +14068,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D18" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F18" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -13995,16 +14089,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>756</v>
+      </c>
+      <c r="D19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="F19" t="s">
         <v>759</v>
-      </c>
-      <c r="D19" t="s">
-        <v>773</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="F19" t="s">
-        <v>762</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -14016,16 +14110,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D20" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F20" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -14037,16 +14131,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D21" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F21" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -14058,16 +14152,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>778</v>
+      </c>
+      <c r="D22" t="s">
         <v>781</v>
       </c>
-      <c r="D22" t="s">
-        <v>784</v>
-      </c>
       <c r="E22" s="19" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F22" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -14079,16 +14173,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>782</v>
+      </c>
+      <c r="D23" t="s">
+        <v>784</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="D23" t="s">
-        <v>787</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>788</v>
-      </c>
       <c r="F23" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -14100,16 +14194,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>786</v>
+      </c>
+      <c r="D24" t="s">
         <v>789</v>
       </c>
-      <c r="D24" t="s">
-        <v>792</v>
-      </c>
       <c r="E24" s="19" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F24" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -14121,16 +14215,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>790</v>
+      </c>
+      <c r="D25" t="s">
+        <v>792</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="F25" t="s">
         <v>793</v>
-      </c>
-      <c r="D25" t="s">
-        <v>795</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="F25" t="s">
-        <v>796</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -14142,16 +14236,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D26" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F26" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -14163,16 +14257,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>806</v>
+      </c>
+      <c r="D27" t="s">
+        <v>807</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="D27" t="s">
-        <v>810</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>812</v>
-      </c>
       <c r="F27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -14184,16 +14278,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>814</v>
+      </c>
+      <c r="D28" t="s">
+        <v>815</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="F28" t="s">
         <v>817</v>
-      </c>
-      <c r="D28" t="s">
-        <v>818</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>819</v>
-      </c>
-      <c r="F28" t="s">
-        <v>820</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -14205,16 +14299,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
+        <v>818</v>
+      </c>
+      <c r="D29" t="s">
+        <v>819</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="D29" t="s">
-        <v>822</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>824</v>
-      </c>
       <c r="F29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -14226,16 +14320,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D30" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F30" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -14247,16 +14341,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D31" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E31" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="F31" t="s">
         <v>840</v>
-      </c>
-      <c r="F31" t="s">
-        <v>843</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -14303,10 +14397,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14324,25 +14418,25 @@
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>950</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>951</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>953</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -14352,7 +14446,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
@@ -14368,14 +14462,14 @@
         <v>40</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>955</v>
+        <v>1007</v>
       </c>
       <c r="L2" t="str">
         <f>"INSERT INTO alcohol VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO alcohol VALUES('1','데킬라','Tequila','데킬라','Tequila','40','https://dimg.donga.com/wps/NEWS/IMAGE/2013/11/20/59008900.4.jpg','아무종류의 데킬라나 상관없습니다.');</v>
+        <v>INSERT INTO alcohol VALUES('1','데킬라','Tequila','데킬라','Tequila','40','https://dimg.donga.com/wps/NEWS/IMAGE/2013/11/20/59008900.4.jpg','데킬라는 멕시코를 대표하는 증류주로 알코올 농도는 35~55% 사이입니다. 주 재료는 멕시코 할리스코주의 데킬라를 둘러싼 지역에서만 서식하는 푸른 용설란입니다.');</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -14401,10 +14495,10 @@
         <v>444</v>
       </c>
       <c r="I3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L45" si="0">"INSERT INTO alcohol VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <f t="shared" ref="L3:L51" si="0">"INSERT INTO alcohol VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
         <v>INSERT INTO alcohol VALUES('2','데킬라','Tequila','호세쿠엘보 에스페샬 골드','Jose Cuervo Especial Gold Tequila','38','https://img.thewhiskyexchange.com/900/teqla_cue1.jpg','51퍼센트의 푸른 용설란 수액과 49퍼센트의 기타 용설란 수액을 재료로 합니다. 밝은 황금색의 빛깔을 보여 숙성된 테킬라라 생각하기 쉽지만 사실 이 색깔은 캐러멜 등의 첨가물에 의한 것입니다.');</v>
       </c>
     </row>
@@ -14431,7 +14525,7 @@
         <v>447</v>
       </c>
       <c r="I4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
@@ -14461,7 +14555,7 @@
         <v>450</v>
       </c>
       <c r="I5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
@@ -14491,7 +14585,7 @@
         <v>453</v>
       </c>
       <c r="I6" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
@@ -14521,7 +14615,7 @@
         <v>456</v>
       </c>
       <c r="I7" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
@@ -14551,7 +14645,7 @@
         <v>459</v>
       </c>
       <c r="I8" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
@@ -14581,7 +14675,7 @@
         <v>462</v>
       </c>
       <c r="I9" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
@@ -14611,7 +14705,7 @@
         <v>465</v>
       </c>
       <c r="I10" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
@@ -14625,30 +14719,30 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>268</v>
+      <c r="C11" s="31" t="s">
+        <v>1008</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>1009</v>
       </c>
       <c r="E11" t="s">
-        <v>467</v>
+        <v>1008</v>
       </c>
       <c r="F11" t="s">
-        <v>468</v>
+        <v>1009</v>
       </c>
       <c r="G11">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>469</v>
+        <v>40</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>1010</v>
       </c>
       <c r="I11" t="s">
-        <v>470</v>
+        <v>1011</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('10','진','Gin','탱커레이 런던드라이 진','Tanqueray London Dry Gin','47','https://img.thewhiskyexchange.com/900/gin_tan1.jpg','꽃 향기가 나며 산뜻하고 드라이합니다.');</v>
+        <v>INSERT INTO alcohol VALUES('10','진','Gin','진','Gin','40','https://img.seoul.co.kr/img/upload/2019/10/17/SSI_20191017172529.jpg','진은 호밀 등을 원료로 하여 독특한 향기를 내는 무색투명한 술로 40~47도입니다. 주로 베르무트라는 리큐르를 섞어 칵테일을 만들거나 라임주스나 토닉워터와 같은 음료를 섞어 마시기도 합니다.');</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -14662,23 +14756,23 @@
         <v>466</v>
       </c>
       <c r="E12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G12">
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('11','진','Gin','탱커레이 No.10','Tanqueray No.10 Gin','47','https://img.thewhiskyexchange.com/900/gin_tan5.jpg','감귤/자몽향으로 마티니에 어울립니다.');</v>
+        <v>INSERT INTO alcohol VALUES('11','진','Gin','탱커레이 런던드라이 진','Tanqueray London Dry Gin','47','https://img.thewhiskyexchange.com/900/gin_tan1.jpg','꽃 향기가 나며 산뜻하고 드라이합니다.');</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -14692,23 +14786,23 @@
         <v>466</v>
       </c>
       <c r="E13" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F13" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G13">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I13" t="s">
-        <v>963</v>
+        <v>474</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('12','진','Gin','핸드릭스 진','Hendrick's Gin','41','https://img.thewhiskyexchange.com/900/gin_hen15.jpg','11가지 천연허브 원료와 불가리아산 장미 꽃잎과 네덜란드산 오이에서 추출한 오일을 중류과정에서 자연스럽게 스며들게한 진입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('12','진','Gin','탱커레이 No.10','Tanqueray No.10 Gin','47','https://img.thewhiskyexchange.com/900/gin_tan5.jpg','감귤/자몽향으로 마티니에 어울립니다.');</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -14722,23 +14816,23 @@
         <v>466</v>
       </c>
       <c r="E14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F14" t="s">
-        <v>479</v>
+        <v>1029</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I14" t="s">
-        <v>481</v>
+        <v>959</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('13','진','Gin','봄베이 사파이어 진','Bombay Sapphire Gin','40','https://img.thewhiskyexchange.com/900/gin_bom2.jpg','허브, 약초향으로 토닉과 잘어울립니다.');</v>
+        <v>INSERT INTO alcohol VALUES('13','진','Gin','핸드릭스 진','Hendrick\'s Gin','41','https://img.thewhiskyexchange.com/900/gin_hen15.jpg','11가지 천연허브 원료와 불가리아산 장미 꽃잎과 네덜란드산 오이에서 추출한 오일을 중류과정에서 자연스럽게 스며들게한 진입니다.');</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -14752,23 +14846,23 @@
         <v>466</v>
       </c>
       <c r="E15" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F15" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I15" t="s">
-        <v>964</v>
+        <v>480</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('14','진','Gin','비피이터 진','Beefeater Dry Gin','47','https://img.thewhiskyexchange.com/900/gin_bee19.jpg','영국 런던의 런던탑을 지키는 요먼 경비대의 별명에서 따온 이름입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('14','진','Gin','봄베이 사파이어 진','Bombay Sapphire Gin','40','https://img.thewhiskyexchange.com/900/gin_bom2.jpg','허브, 약초향으로 토닉과 잘어울립니다.');</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -14782,86 +14876,86 @@
         <v>466</v>
       </c>
       <c r="E16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G16">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I16" t="s">
-        <v>488</v>
+        <v>960</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('15','진','Gin','고든스 런던 드라이 진','Gordon's London Dry Gin','43','https://www.gordonsgin.com/media/837953/homepage-export-single-bottle.jpg','영국에서 생산되는 오래된 진으로, 라벨의 동물인 멧돼지는 고든 가문의 상징입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('15','진','Gin','비피이터 진','Beefeater Dry Gin','47','https://img.thewhiskyexchange.com/900/gin_bee19.jpg','영국 런던의 런던탑을 지키는 요먼 경비대의 별명에서 따온 이름입니다.');</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E17" t="s">
+        <v>484</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G17">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>485</v>
+      </c>
+      <c r="I17" t="s">
+        <v>486</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('16','진','Gin','고든스 런던 드라이 진','Gordon\'s London Dry Gin','43','https://www.gordonsgin.com/media/837953/homepage-export-single-bottle.jpg','영국에서 생산되는 오래된 진으로, 라벨의 동물인 멧돼지는 고든 가문의 상징입니다.');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
-        <v>489</v>
-      </c>
-      <c r="E17" t="s">
-        <v>490</v>
-      </c>
-      <c r="F17" t="s">
-        <v>491</v>
-      </c>
-      <c r="G17">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>492</v>
-      </c>
-      <c r="I17" t="s">
-        <v>965</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('16','럼','Rum','팜페로 블랑코','Pampero Blanco Rum','37','https://img.thewhiskyexchange.com/900/rum_pam4.jpg','6개월간 숙성을 거치고 모히또 스타일의 칵테일이 어울립니다.');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>70</v>
+      <c r="C18" s="31" t="s">
+        <v>1012</v>
       </c>
       <c r="D18" t="s">
-        <v>489</v>
+        <v>1013</v>
       </c>
       <c r="E18" t="s">
-        <v>493</v>
+        <v>1012</v>
       </c>
       <c r="F18" t="s">
-        <v>494</v>
+        <v>1013</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
-      <c r="H18" t="s">
-        <v>495</v>
+      <c r="H18" s="19" t="s">
+        <v>1018</v>
       </c>
       <c r="I18" t="s">
-        <v>966</v>
+        <v>1017</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('17','럼','Rum','자카파 23','Ron Zacapa Centenario Sistema Solera 23 Rum','40','https://img.thewhiskyexchange.com/900/rum_ron1.jpg','높은 고도에서 숙성하고 6~23년 숙성된 럼을 블렌딩 합니다. 그 자체를 즐기는것이 좋은 술입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('17','럼','Rum','럼','Rum','40','https://cdn.shopify.com/s/files/1/1569/9643/products/royal-standard-dry-white-rum_700x700.jpg?v=1571311097','럼주라고도 하며 사탕수수를 착즙해서 설탕을 만들고 남은 찌꺼기인 당밀이나 사탕수수 즙을 발표시켜 증류한 술입니다.');</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -14872,26 +14966,26 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
+        <v>487</v>
+      </c>
+      <c r="E19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19" t="s">
         <v>489</v>
       </c>
-      <c r="E19" t="s">
-        <v>497</v>
-      </c>
-      <c r="F19" t="s">
-        <v>498</v>
-      </c>
       <c r="G19">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I19" t="s">
-        <v>496</v>
+        <v>961</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('18','럼','Rum','캡틴 모건','Captain Morgan Spiced Gold','35','https://img.thewhiskyexchange.com/900/rum_cap2.jpg','캐리비안 럼으로 향신료와 천연재료에서 나오는 향이 훌륭합니다.');</v>
+        <v>INSERT INTO alcohol VALUES('18','럼','Rum','팜페로 블랑코','Pampero Blanco Rum','37','https://img.thewhiskyexchange.com/900/rum_pam4.jpg','6개월간 숙성을 거치고 모히또 스타일의 칵테일이 어울립니다.');</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -14902,26 +14996,26 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E20" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="I20" t="s">
-        <v>503</v>
+        <v>962</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('19','럼','Rum','플랜테이션 오리지널 다크','Plantation Original Dark Rum','40','https://img.thewhiskyexchange.com/900/rum_pla29.jpg','트로피컬한 칵테일 베이스로 추천합니다.');</v>
+        <v>INSERT INTO alcohol VALUES('19','럼','Rum','자카파 23','Ron Zacapa Centenario Sistema Solera 23 Rum','40','https://img.thewhiskyexchange.com/900/rum_ron1.jpg','높은 고도에서 숙성하고 6~23년 숙성된 럼을 블렌딩 합니다. 그 자체를 즐기는것이 좋은 술입니다.');</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -14932,26 +15026,26 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E21" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F21" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="G21">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="I21" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('20','럼','Rum','디플로마티코 익스클루시바','Diplomatico Reserva Exclusiva Rum','40','https://img.thewhiskyexchange.com/900/rum_dip1.jpg','니트 또는 온더락스타일로 그냥 먹거나 올드패션드로 만들어 먹는 것을 추천합니다.');</v>
+        <v>INSERT INTO alcohol VALUES('20','럼','Rum','캡틴 모건','Captain Morgan Spiced Gold','35','https://img.thewhiskyexchange.com/900/rum_cap2.jpg','캐리비안 럼으로 향신료와 천연재료에서 나오는 향이 훌륭합니다.');</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -14959,29 +15053,29 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>730</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E22" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F22" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="I22" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('21','화이트 럼','Rum','바카디 슈페리얼','Bacardi Superior','37','https://img.thewhiskyexchange.com/900/rum_bac92.jpg','화이트럼으로 모히또를 만들어 마시는 것을 추천합니다.');</v>
+        <v>INSERT INTO alcohol VALUES('21','럼','Rum','플랜테이션 오리지널 다크','Plantation Original Dark Rum','40','https://img.thewhiskyexchange.com/900/rum_pla29.jpg','트로피컬한 칵테일 베이스로 추천합니다.');</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -14992,119 +15086,119 @@
         <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E23" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F23" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="G23">
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="I23" t="s">
-        <v>967</v>
+        <v>505</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('22','럼','Rum','카차카 51','Cachaca 51','40','http://wine1865.co.kr/upload/p_image/b/P0714-677.jpg','브라질 국민주로, 카이피리냐 칵테일 베이스로 잘 알려져있습니다.');</v>
+        <v>INSERT INTO alcohol VALUES('22','럼','Rum','디플로마티코 익스클루시바','Diplomatico Reserva Exclusiva Rum','40','https://img.thewhiskyexchange.com/900/rum_dip1.jpg','니트 또는 온더락스타일로 그냥 먹거나 올드패션드로 만들어 먹는 것을 추천합니다.');</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>515</v>
-      </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>515</v>
+      <c r="C24" s="31" t="s">
+        <v>727</v>
       </c>
       <c r="D24" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="E24" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="F24" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="I24" t="s">
-        <v>968</v>
+        <v>509</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('23','보드카','Vodka','케텔 원','Ketel One Vodka','40','https://img.thewhiskyexchange.com/900/vodka_ket1.jpg','언더락 스타일로 얼음과 라임 한조각을 넣어마십니다.');</v>
+        <v>INSERT INTO alcohol VALUES('23','화이트 럼','Rum','바카디 슈페리얼','Bacardi Superior','37','https://img.thewhiskyexchange.com/900/rum_bac92.jpg','화이트럼으로 모히또를 만들어 마시는 것을 추천합니다.');</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>515</v>
+      <c r="C25" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="E25" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F25" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G25">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="I25" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('24','보드카','Vodka','스미노프 No.21','Smirnoff Red Vodka','37','https://img.thewhiskyexchange.com/900/vodka_smi3.jpg','모스코뮬(moscow mule) 칵테일을 주로 만들어 먹습니다.');</v>
+        <v>INSERT INTO alcohol VALUES('24','럼','Rum','카차카 51','Cachaca 51','40','http://wine1865.co.kr/upload/p_image/b/P0714-677.jpg','브라질 국민주로, 카이피리냐 칵테일 베이스로 잘 알려져있습니다.');</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>513</v>
+      </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>515</v>
+      <c r="C26" s="31" t="s">
+        <v>1014</v>
       </c>
       <c r="D26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E26" t="s">
-        <v>523</v>
+        <v>1014</v>
       </c>
       <c r="F26" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G26">
         <v>40</v>
       </c>
-      <c r="H26" t="s">
-        <v>524</v>
+      <c r="H26" s="19" t="s">
+        <v>1020</v>
       </c>
       <c r="I26" t="s">
-        <v>970</v>
+        <v>1019</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('25','보드카','Vodka','스미노프 블랙','Smirnoff Black Label Vodka','40','https://img.thewhiskyexchange.com/900/vodka_smi14.jpg','보드카 토닉 스타일로 먹는 것을 추천합니다.');</v>
+        <v>INSERT INTO alcohol VALUES('25','보드카','Vodka','보드카','Vodka','40','https://www.saverglass.com/sites/default/files/img/2020-05/succ-grey-goose-intro.jpg','동류업 원산의 증류수입니다. 러시아어로 물을 뜻하는 낱말에서 유래되었습니다.');</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -15112,29 +15206,29 @@
         <v>26</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="D27" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" t="s">
         <v>515</v>
-      </c>
-      <c r="D27" t="s">
-        <v>516</v>
-      </c>
-      <c r="E27" t="s">
-        <v>526</v>
-      </c>
-      <c r="F27" t="s">
-        <v>528</v>
       </c>
       <c r="G27">
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="I27" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('26','보드카','Vodka','시로크','Ciroc Vodka','40','https://img.thewhiskyexchange.com/900/vodka_cir2.jpg','레몬 혹은 라임향이 납니다.');</v>
+        <v>INSERT INTO alcohol VALUES('26','보드카','Vodka','케텔 원','Ketel One Vodka','40','https://img.thewhiskyexchange.com/900/vodka_ket1.jpg','언더락 스타일로 얼음과 라임 한조각을 넣어마십니다.');</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -15142,29 +15236,29 @@
         <v>27</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E28" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F28" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="I28" t="s">
-        <v>532</v>
+        <v>965</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('27','보드카','Vodka','앱솔루트 오리지날','Absolut Vodka','40','https://img.thewhiskyexchange.com/900/vodka_abs1.jpg','크렌베리 주스나 다른 주스에 섞어서 마시는 걸 추천합니다.');</v>
+        <v>INSERT INTO alcohol VALUES('27','보드카','Vodka','스미노프 No.21','Smirnoff Red Vodka','37','https://img.thewhiskyexchange.com/900/vodka_smi3.jpg','모스코뮬(moscow mule) 칵테일을 주로 만들어 먹습니다.');</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -15172,29 +15266,29 @@
         <v>28</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D29" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E29" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F29" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G29">
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="I29" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('28','보드카','Vodka','그레이 구스','Grey Goose Vodka','40','https://img.thewhiskyexchange.com/900/vodka_gre14.jpg','깔끔한 맛, 부드러운 목 넘김이 특징입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('28','보드카','Vodka','스미노프 블랙','Smirnoff Black Label Vodka','40','https://img.thewhiskyexchange.com/900/vodka_smi14.jpg','보드카 토닉 스타일로 먹는 것을 추천합니다.');</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -15202,29 +15296,29 @@
         <v>29</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E30" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F30" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G30">
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I30" t="s">
-        <v>537</v>
+        <v>967</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('29','보드카','Vodka','벨베디어','Belvedere Vodka','40','https://img.thewhiskyexchange.com/900/vodka_bel50.jpg','잡맛이 없고 깔끔한 것이 특징으로 혀 끝에서 좀 더 순하며 부드러운 맛을 내고 키스 오브 파이어에 잘어울립니다.');</v>
+        <v>INSERT INTO alcohol VALUES('29','보드카','Vodka','시로크','Ciroc Vodka','40','https://img.thewhiskyexchange.com/900/vodka_cir2.jpg','레몬 혹은 라임향이 납니다.');</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -15232,62 +15326,59 @@
         <v>30</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E31" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F31" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G31">
         <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="I31" t="s">
-        <v>973</v>
+        <v>530</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('30','보드카','Vodka','스톨리치나야','Stolichnaya Red Vodka','40','https://img.thewhiskyexchange.com/900/vodka_sto5.jpg','밀과 호밀이 원재료인 러시아산 보드카의 대명사입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('30','보드카','Vodka','앱솔루트 오리지날','Absolut Vodka','40','https://img.thewhiskyexchange.com/900/vodka_abs1.jpg','크렌베리 주스나 다른 주스에 섞어서 마시는 걸 추천합니다.');</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>543</v>
-      </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="D32" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="E32" t="s">
-        <v>683</v>
+        <v>532</v>
       </c>
       <c r="F32" t="s">
-        <v>685</v>
+        <v>533</v>
       </c>
       <c r="G32">
         <v>40</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>684</v>
+      <c r="H32" t="s">
+        <v>531</v>
       </c>
       <c r="I32" t="s">
-        <v>686</v>
+        <v>968</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('31','브랜디','Brandy','카뮤','Camus V.S.O.P','40','https://img.thewhiskyexchange.com/900/cognc_cam53.jpg','과일을 증류하여 오크통에 숙성한 증류스를 브랜디라 부르는데 프랑스 꼬냑지역에서 생산되었습니다. 카뮤는 여러 꼬냑 종류 중 하나입니다. 오크통 숙성 기간에 따라 등급이 정해집니다.');</v>
+        <v>INSERT INTO alcohol VALUES('31','보드카','Vodka','그레이 구스','Grey Goose Vodka','40','https://img.thewhiskyexchange.com/900/vodka_gre14.jpg','깔끔한 맛, 부드러운 목 넘김이 특징입니다.');</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -15295,29 +15386,29 @@
         <v>32</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="D33" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="E33" t="s">
-        <v>688</v>
+        <v>534</v>
       </c>
       <c r="F33" t="s">
-        <v>689</v>
+        <v>537</v>
       </c>
       <c r="G33">
         <v>40</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>687</v>
+      <c r="H33" t="s">
+        <v>536</v>
       </c>
       <c r="I33" t="s">
-        <v>690</v>
+        <v>535</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('32','브랜디','Brandy','마르텔','Martell','40','https://www.kixdutyfree.jp/ko/images/item/2205500259_1.jpg','와인을 증류해서 만든 술로 은은한 포도향이 느껴지고 오크통 숙성으로 오크향도 은은하게 느낄 수 있습니다.');</v>
+        <v>INSERT INTO alcohol VALUES('32','보드카','Vodka','벨베디어','Belvedere Vodka','40','https://img.thewhiskyexchange.com/900/vodka_bel50.jpg','잡맛이 없고 깔끔한 것이 특징으로 혀 끝에서 좀 더 순하며 부드러운 맛을 내고 키스 오브 파이어에 잘어울립니다.');</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -15325,59 +15416,62 @@
         <v>33</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="D34" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="E34" t="s">
-        <v>692</v>
+        <v>538</v>
       </c>
       <c r="F34" t="s">
-        <v>693</v>
+        <v>539</v>
       </c>
       <c r="G34">
         <v>40</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>691</v>
+      <c r="H34" t="s">
+        <v>540</v>
       </c>
       <c r="I34" t="s">
-        <v>694</v>
+        <v>969</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('33','브랜디','Brandy','레미마르땡','Remy martin','40','https://img.thewhiskyexchange.com/900/cognc_rem209.jpg','대중적으로 알려진 코냑 중 하나로 다소 드라이한 맛이 특징입니다. ');</v>
+        <v>INSERT INTO alcohol VALUES('33','보드카','Vodka','스톨리치나야','Stolichnaya Red Vodka','40','https://img.thewhiskyexchange.com/900/vodka_sto5.jpg','밀과 호밀이 원재료인 러시아산 보드카의 대명사입니다.');</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>541</v>
+      </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>139</v>
+        <v>1015</v>
       </c>
       <c r="D35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E35" t="s">
-        <v>696</v>
+        <v>1015</v>
       </c>
       <c r="F35" t="s">
-        <v>697</v>
+        <v>1021</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>695</v>
+        <v>1023</v>
       </c>
       <c r="I35" t="s">
-        <v>698</v>
+        <v>1022</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('34','브랜디','Brandy','아라라트','Ararat','50','https://img.thewhiskyexchange.com/900/brandy_ara2.jpg','아르메니아에서 생산된 브랜디로 호도 나무통에 숙성되고 아르메니아 고원지대에서만 생산되는 흰색 포도 '키시밋'품종으로 만들어졌습니다. ');</v>
+        <v>INSERT INTO alcohol VALUES('34','브랜디','Brandy','브랜디','Brandy','45','https://img1.daumcdn.net/thumb/R800x0/?scode=mtistory2&amp;fname=https%3A%2F%2Ft1.daumcdn.net%2Fcfile%2Ftistory%2F277E8C4052DF899106','과실을 발효한 술을 증류해서 만든 증류수 입니다. 알코올 도수는 35~60도 사이입니다. 과육을 쓰지 않고 과실의 껍질이나 압착 후 찌꺼기를 사용한 증류주도 브랜디에 속합니다.');</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -15385,182 +15479,182 @@
         <v>35</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>139</v>
+        <v>541</v>
       </c>
       <c r="D36" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="F36" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G36">
         <v>40</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="I36" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('35','브랜디','Brandy','칼바도스','Calvados','40','https://img.thewhiskyexchange.com/900/calva_dro1980.jpg','칼바도스 지역에서 생산되는 사과 증류수를 말합니다. ');</v>
+        <v>INSERT INTO alcohol VALUES('35','브랜디','Brandy','카뮤','Camus V.S.O.P','40','https://img.thewhiskyexchange.com/900/cognc_cam53.jpg','과일을 증류하여 오크통에 숙성한 증류스를 브랜디라 부르는데 프랑스 꼬냑지역에서 생산되었습니다. 카뮤는 여러 꼬냑 종류 중 하나입니다. 오크통 숙성 기간에 따라 등급이 정해집니다.');</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>681</v>
-      </c>
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>681</v>
+      <c r="C37" s="20" t="s">
+        <v>541</v>
       </c>
       <c r="D37" t="s">
-        <v>682</v>
+        <v>542</v>
       </c>
       <c r="E37" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="F37" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="G37">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="I37" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('36','리큐르','Liqueur','블루 큐라소','Blue curacao','21','https://products0.imgix.drizly.com/ci-blue-curacao-de-kuyper-571a7df555aed3a7.png?auto=format%2Ccompress&amp;fm=jpg&amp;q=20','파란색과 강렬한 오렌지색 향을 내는 리큐르입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('36','브랜디','Brandy','마르텔','Martell','40','https://www.kixdutyfree.jp/ko/images/item/2205500259_1.jpg','와인을 증류해서 만든 술로 은은한 포도향이 느껴지고 오크통 숙성으로 오크향도 은은하게 느낄 수 있습니다.');</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>681</v>
+      <c r="C38" s="20" t="s">
+        <v>541</v>
       </c>
       <c r="D38" t="s">
-        <v>682</v>
+        <v>542</v>
       </c>
       <c r="E38" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="F38" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="G38">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="I38" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('37','리큐르','Liqueur','화이트 큐라소','White curacao','26','https://image.biccamera.com/img/00000001948213_A01.jpg?sr.dw=320&amp;sr.jqh=60&amp;sr.dh=320&amp;sr.mat=1','건조시킨 오렌지 껍질을 이용하여 증류하여 만든 증류액에 여러 향료와 시럽 물을 섞어 만든 것입니다. 미국에서 생산되는 트러플 섹과 프랑스에서 생산되는 꼬잉뜨루는 화이트 큐라소와 동일한 제품입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('37','브랜디','Brandy','레미마르땡','Remy martin','40','https://img.thewhiskyexchange.com/900/cognc_rem209.jpg','대중적으로 알려진 코냑 중 하나로 다소 드라이한 맛이 특징입니다. ');</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>681</v>
+      <c r="C39" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>682</v>
+        <v>542</v>
       </c>
       <c r="E39" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F39" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="G39">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="I39" t="s">
-        <v>711</v>
+        <v>1031</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('38','리큐르','Liqueur','트리플 섹','Triple sec','35','https://products3.imgix.drizly.com/ci-arrow-triple-sec-e822dab76a9549b4.png?auto=format%2Ccompress&amp;fm=jpg&amp;q=20','오렌지 껍질과 설탕을 원료로 만들어졌습니다. 화이트 큐라소 리큐르에 오렌지 리큐르를 혼합한 것입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('38','브랜디','Brandy','아라라트','Ararat','50','https://img.thewhiskyexchange.com/900/brandy_ara2.jpg','아르메니아에서 생산된 브랜디로 호도 나무통에 숙성되고 아르메니아 고원지대에서만 생산되는 흰색 포도 \'키시밋\'품종으로 만들어졌습니다. ');</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>681</v>
+      <c r="C40" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>682</v>
+        <v>542</v>
       </c>
       <c r="E40" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="F40" t="s">
-        <v>748</v>
+        <v>697</v>
       </c>
       <c r="G40">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="I40" t="s">
-        <v>747</v>
+        <v>699</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('39','리큐르','Liqueur','크렘 드 멘트 그린','Creme de menthe green','21','https://blog.kakaocdn.net/dn/qc9NP/btqzozBzweY/WGWHOooJzwcOC7ruz8sy31/img.jpg','박하잎에서 추출한 박하오일을 당분과 함께 넣어 만든 리큐르 입니다. 그린은 녹색을 첨가한 것 입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('39','브랜디','Brandy','칼바도스','Calvados','40','https://img.thewhiskyexchange.com/900/calva_dro1980.jpg','칼바도스 지역에서 생산되는 사과 증류수를 말합니다. ');</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>679</v>
+      </c>
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>681</v>
+      <c r="C41" s="20" t="s">
+        <v>1016</v>
       </c>
       <c r="D41" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E41" t="s">
-        <v>799</v>
+        <v>1016</v>
       </c>
       <c r="F41" t="s">
-        <v>798</v>
+        <v>1025</v>
       </c>
       <c r="G41">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>981</v>
+        <v>1024</v>
       </c>
       <c r="I41" t="s">
-        <v>800</v>
+        <v>1026</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('40','리큐르','Liqueur','슬로 진','Sloe gin','33','https://t1.daumcdn.net/cfile/blog/2454F94355E18FA62B','자두의 일종인 슬로(Sloe) 열매를 진에 담궈 향을 추출한 리큐르 입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('40','리큐르','Liqueur','리큐르','Liqueur','30','https://www.japanherb.co.kr/data/item/1596678104/thumb-71x6RDD7G8L._AC_SL1500__465x550.jpg','혼합주의 하나로 알코올에 설탕, 식물, 향로 등을 섞어 만든 술입니다. 인기있는 향으로는 살구, 체리, 초콜릿, 오렌지, 복숭아, 페퍼민트가 있습니다. 당분이 2.5%이상 들어있고 도수가 13~55도 사이 입니다. ');</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
@@ -15568,29 +15662,29 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D42" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E42" t="s">
-        <v>806</v>
+        <v>700</v>
       </c>
       <c r="F42" t="s">
-        <v>805</v>
+        <v>701</v>
       </c>
       <c r="G42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>807</v>
+        <v>702</v>
       </c>
       <c r="I42" t="s">
-        <v>808</v>
+        <v>703</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('41','리큐르','Liqueur','깔루아','Kahlúa','20','https://m.wellbaking.com/web/product/big/201512/1348_shop1_537753.jpg','멕시코 베라 크루즈의 커피 리큐르입니다. 럼, 설탕 및 100% 아라비카 커피가 포함되어 있습니다.');</v>
+        <v>INSERT INTO alcohol VALUES('41','리큐르','Liqueur','블루 큐라소','Blue curacao','21','https://products0.imgix.drizly.com/ci-blue-curacao-de-kuyper-571a7df555aed3a7.png?auto=format%2Ccompress&amp;fm=jpg&amp;q=20','파란색과 강렬한 오렌지색 향을 내는 리큐르입니다.');</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
@@ -15598,29 +15692,29 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D43" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E43" t="s">
-        <v>813</v>
+        <v>704</v>
       </c>
       <c r="F43" t="s">
-        <v>814</v>
+        <v>705</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>815</v>
+        <v>706</v>
       </c>
       <c r="I43" t="s">
-        <v>816</v>
+        <v>707</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('42','리큐르','Liqueur','크렘 드 카시스','Crème de cassis','15','https://t1.daumcdn.net/cfile/blog/9953704D5BC60C0032','까막까치밥 나무의 열매를 곱게 부순 후 술에 담그고 당분을 넣어 숙성 시킨 리큐르 입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('42','리큐르','Liqueur','화이트 큐라소','White curacao','26','https://image.biccamera.com/img/00000001948213_A01.jpg?sr.dw=320&amp;sr.jqh=60&amp;sr.dh=320&amp;sr.mat=1','건조시킨 오렌지 껍질을 이용하여 증류하여 만든 증류액에 여러 향료와 시럽 물을 섞어 만든 것입니다. 미국에서 생산되는 트러플 섹과 프랑스에서 생산되는 꼬잉뜨루는 화이트 큐라소와 동일한 제품입니다.');</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
@@ -15628,87 +15722,273 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D44" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E44" t="s">
-        <v>829</v>
+        <v>676</v>
       </c>
       <c r="F44" t="s">
-        <v>830</v>
+        <v>677</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>831</v>
+        <v>678</v>
       </c>
       <c r="I44" t="s">
-        <v>832</v>
+        <v>708</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('43','리큐르','Liqueur','사과주','Cider','4','https://img1.daumcdn.net/thumb/R720x0.q80/?scode=mtistory2&amp;fname=http%3A%2F%2Fcfile9.uf.tistory.com%2Fimage%2F997475505B3B0A6A14A027','사과 과즙을 발효시켜 만든 술입니다.');</v>
+        <v>INSERT INTO alcohol VALUES('43','리큐르','Liqueur','트리플 섹','Triple sec','35','https://products3.imgix.drizly.com/ci-arrow-triple-sec-e822dab76a9549b4.png?auto=format%2Ccompress&amp;fm=jpg&amp;q=20','오렌지 껍질과 설탕을 원료로 만들어졌습니다. 화이트 큐라소 리큐르에 오렌지 리큐르를 혼합한 것입니다.');</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>834</v>
-      </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
+        <v>679</v>
+      </c>
+      <c r="D45" t="s">
+        <v>680</v>
+      </c>
+      <c r="E45" t="s">
+        <v>743</v>
+      </c>
+      <c r="F45" t="s">
+        <v>745</v>
+      </c>
+      <c r="G45">
+        <v>21</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="I45" t="s">
+        <v>744</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('44','리큐르','Liqueur','크렘 드 멘트 그린','Creme de menthe green','21','https://blog.kakaocdn.net/dn/qc9NP/btqzozBzweY/WGWHOooJzwcOC7ruz8sy31/img.jpg','박하잎에서 추출한 박하오일을 당분과 함께 넣어 만든 리큐르 입니다. 그린은 녹색을 첨가한 것 입니다.');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>679</v>
+      </c>
+      <c r="D46" t="s">
+        <v>680</v>
+      </c>
+      <c r="E46" t="s">
+        <v>796</v>
+      </c>
+      <c r="F46" t="s">
+        <v>795</v>
+      </c>
+      <c r="G46">
+        <v>33</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="I46" t="s">
+        <v>797</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('45','리큐르','Liqueur','슬로 진','Sloe gin','33','https://t1.daumcdn.net/cfile/blog/2454F94355E18FA62B','자두의 일종인 슬로(Sloe) 열매를 진에 담궈 향을 추출한 리큐르 입니다.');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>679</v>
+      </c>
+      <c r="D47" t="s">
+        <v>680</v>
+      </c>
+      <c r="E47" t="s">
+        <v>803</v>
+      </c>
+      <c r="F47" t="s">
+        <v>802</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="I47" t="s">
+        <v>805</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('46','리큐르','Liqueur','깔루아','Kahlúa','20','https://m.wellbaking.com/web/product/big/201512/1348_shop1_537753.jpg','멕시코 베라 크루즈의 커피 리큐르입니다. 럼, 설탕 및 100% 아라비카 커피가 포함되어 있습니다.');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>679</v>
+      </c>
+      <c r="D48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E48" t="s">
+        <v>810</v>
+      </c>
+      <c r="F48" t="s">
+        <v>811</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="I48" t="s">
+        <v>813</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('47','리큐르','Liqueur','크렘 드 카시스','Crème de cassis','15','https://t1.daumcdn.net/cfile/blog/9953704D5BC60C0032','까막까치밥 나무의 열매를 곱게 부순 후 술에 담그고 당분을 넣어 숙성 시킨 리큐르 입니다.');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>679</v>
+      </c>
+      <c r="D49" t="s">
+        <v>680</v>
+      </c>
+      <c r="E49" t="s">
+        <v>826</v>
+      </c>
+      <c r="F49" t="s">
+        <v>827</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="I49" t="s">
+        <v>829</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('48','리큐르','Liqueur','사과주','Cider','4','https://img1.daumcdn.net/thumb/R720x0.q80/?scode=mtistory2&amp;fname=http%3A%2F%2Fcfile9.uf.tistory.com%2Fimage%2F997475505B3B0A6A14A027','사과 과즙을 발효시켜 만든 술입니다.');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>831</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>832</v>
+      </c>
+      <c r="D50" t="s">
+        <v>834</v>
+      </c>
+      <c r="E50" t="s">
+        <v>832</v>
+      </c>
+      <c r="F50" t="s">
+        <v>834</v>
+      </c>
+      <c r="G50">
+        <v>41</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('49','버번 위스키','Bourbon whiskey','버번 위스키','Bourbon whiskey','41','https://assabeer.com/web/product/small/20191206/86c64fdd1b14788547639596d705b091.jpg','옥수수를 증류한 후 숙성시켜 만든 증류주로 미국 켄터키를 중심으로 생산되는 위스키입니다.');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>832</v>
+      </c>
+      <c r="D51" t="s">
+        <v>834</v>
+      </c>
+      <c r="E51" t="s">
+        <v>833</v>
+      </c>
+      <c r="F51" t="s">
         <v>835</v>
       </c>
-      <c r="D45" t="s">
-        <v>837</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="G51">
+        <v>70</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="I51" t="s">
         <v>836</v>
       </c>
-      <c r="F45" t="s">
-        <v>838</v>
-      </c>
-      <c r="G45">
-        <v>70</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>982</v>
-      </c>
-      <c r="I45" t="s">
-        <v>839</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO alcohol VALUES('44','버번 위스키','Bourbon whiskey','짐빔 화이트 버번 위스키','Jim beam white label ','70','https://manila-wine.com/media/catalog/product/cache/1/image/700x700/9df78eab33525d08d6e5fb8d27136e95/p/r/product1122.jpg','짐빔은 대중적으고 역사적 명성이 있는 미국의 위스키입니다. 그래서 미국에서는 우리나라의 소주와 비숫한 위치의 술로 자리잡혀 있습니다.');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H48" s="19"/>
+      <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('50','버번 위스키','Bourbon whiskey','짐빔 화이트 버번 위스키','Jim beam white label ','70','https://manila-wine.com/media/catalog/product/cache/1/image/700x700/9df78eab33525d08d6e5fb8d27136e95/p/r/product1122.jpg','짐빔은 대중적으고 역사적 명성이 있는 미국의 위스키입니다. 그래서 미국에서는 우리나라의 소주와 비숫한 위치의 술로 자리잡혀 있습니다.');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H54" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1"/>
-    <hyperlink ref="H33" r:id="rId2"/>
-    <hyperlink ref="H34" r:id="rId3"/>
-    <hyperlink ref="H35" r:id="rId4"/>
-    <hyperlink ref="H36" r:id="rId5"/>
-    <hyperlink ref="H37" r:id="rId6"/>
-    <hyperlink ref="H38" r:id="rId7"/>
-    <hyperlink ref="H39" r:id="rId8"/>
-    <hyperlink ref="H40" r:id="rId9"/>
-    <hyperlink ref="H42" r:id="rId10"/>
-    <hyperlink ref="H43" r:id="rId11"/>
+    <hyperlink ref="H36" r:id="rId1"/>
+    <hyperlink ref="H37" r:id="rId2"/>
+    <hyperlink ref="H38" r:id="rId3"/>
+    <hyperlink ref="H39" r:id="rId4"/>
+    <hyperlink ref="H40" r:id="rId5"/>
+    <hyperlink ref="H42" r:id="rId6"/>
+    <hyperlink ref="H43" r:id="rId7"/>
+    <hyperlink ref="H44" r:id="rId8"/>
+    <hyperlink ref="H45" r:id="rId9"/>
+    <hyperlink ref="H47" r:id="rId10"/>
+    <hyperlink ref="H48" r:id="rId11"/>
     <hyperlink ref="H2" r:id="rId12"/>
-    <hyperlink ref="H41" r:id="rId13"/>
-    <hyperlink ref="H45" r:id="rId14"/>
+    <hyperlink ref="H46" r:id="rId13"/>
+    <hyperlink ref="H51" r:id="rId14"/>
+    <hyperlink ref="H11" r:id="rId15"/>
+    <hyperlink ref="H18" r:id="rId16"/>
+    <hyperlink ref="H26" r:id="rId17"/>
+    <hyperlink ref="H35" r:id="rId18"/>
+    <hyperlink ref="H41" r:id="rId19"/>
+    <hyperlink ref="H50" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -15716,7 +15996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J49"/>
     </sheetView>
   </sheetViews>
@@ -15734,10 +16014,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -15758,7 +16038,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -15779,7 +16059,7 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J2" t="str">
         <f>"INSERT INTO article_alcohol VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;E2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"');"</f>
@@ -15795,7 +16075,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -15807,7 +16087,7 @@
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J49" si="0">"INSERT INTO article_alcohol VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;E3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
@@ -15835,7 +16115,7 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
@@ -15851,7 +16131,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -15863,7 +16143,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
@@ -15879,21 +16159,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6">
-        <v>38</v>
+      <c r="E6" s="23">
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G6" s="22">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('5','4','38','30','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('5','4','43','30','ml');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -15905,7 +16185,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -15917,7 +16197,7 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
@@ -15939,13 +16219,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G8" s="22">
         <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -15961,23 +16241,23 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
+        <v>545</v>
+      </c>
+      <c r="E9" s="23">
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G9" s="22">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('8','7','13','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('8','7','10','15','ml');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -15989,21 +16269,21 @@
         <v>7</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10">
-        <v>24</v>
+      <c r="E10" s="23">
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G10" s="22">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('9','7','24','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('9','7','25','15','ml');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -16015,21 +16295,21 @@
         <v>7</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11">
-        <v>21</v>
+      <c r="E11" s="23">
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G11" s="22">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('10','7','21','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('10','7','23','15','ml');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -16045,13 +16325,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G12" s="22">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
@@ -16067,21 +16347,21 @@
         <v>7</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13">
-        <v>38</v>
+      <c r="E13" s="23">
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G13" s="22">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('12','7','38','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('12','7','43','15','ml');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -16105,7 +16385,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
@@ -16121,21 +16401,21 @@
         <v>8</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15">
-        <v>38</v>
+      <c r="E15" s="23">
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G15" s="22">
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('14','8','38','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('14','8','43','15','ml');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -16147,7 +16427,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -16159,7 +16439,7 @@
         <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -16175,7 +16455,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -16187,7 +16467,7 @@
         <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -16202,7 +16482,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -16214,7 +16494,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -16228,21 +16508,21 @@
       <c r="C19" s="6">
         <v>11</v>
       </c>
-      <c r="E19">
-        <v>39</v>
+      <c r="E19" s="23">
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G19" s="22">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('18','11','39','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('18','11','44','15','ml');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -16255,21 +16535,21 @@
       <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="E20">
-        <v>24</v>
+      <c r="E20" s="23">
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G20" s="22">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('19','12','24','30','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('19','12','25','30','ml');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -16289,7 +16569,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -16303,21 +16583,21 @@
       <c r="C22" s="6">
         <v>12</v>
       </c>
-      <c r="E22">
-        <v>38</v>
+      <c r="E22" s="23">
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G22" s="22">
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('21','12','38','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('21','12','43','15','ml');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -16327,21 +16607,21 @@
       <c r="C23" s="6">
         <v>12</v>
       </c>
-      <c r="E23">
-        <v>36</v>
+      <c r="E23" s="23">
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('22','12','36','1','tsp');</v>
+        <v>INSERT INTO article_alcohol VALUES('22','12','41','1','tsp');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -16352,19 +16632,19 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G24" s="22">
         <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -16378,21 +16658,21 @@
       <c r="C25" s="6">
         <v>13</v>
       </c>
-      <c r="E25">
-        <v>36</v>
+      <c r="E25" s="23">
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G25" s="22">
         <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('24','13','36','30','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('24','13','41','30','ml');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -16415,7 +16695,7 @@
         <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -16429,21 +16709,21 @@
       <c r="C27" s="6">
         <v>14</v>
       </c>
-      <c r="E27">
-        <v>38</v>
+      <c r="E27" s="23">
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G27" s="22">
         <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('26','14','38','30','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('26','14','43','30','ml');</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -16466,7 +16746,7 @@
         <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
@@ -16493,7 +16773,7 @@
         <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -16507,21 +16787,21 @@
       <c r="C30" s="6">
         <v>16</v>
       </c>
-      <c r="E30">
-        <v>40</v>
+      <c r="E30" s="23">
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G30" s="22">
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('29','16','40','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('29','16','45','15','ml');</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
@@ -16544,7 +16824,7 @@
         <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -16561,8 +16841,8 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="E32">
-        <v>2</v>
+      <c r="E32" s="23">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
@@ -16571,11 +16851,11 @@
         <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('31','18','2','30','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('31','18','1','30','ml');</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
@@ -16585,21 +16865,21 @@
       <c r="C33" s="6">
         <v>18</v>
       </c>
-      <c r="E33">
-        <v>38</v>
+      <c r="E33" s="23">
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G33" s="22">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('32','18','38','1','tsp');</v>
+        <v>INSERT INTO article_alcohol VALUES('32','18','43','1','tsp');</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
@@ -16610,7 +16890,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -16622,7 +16902,7 @@
         <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
@@ -16636,21 +16916,21 @@
       <c r="C35" s="6">
         <v>19</v>
       </c>
-      <c r="E35">
-        <v>41</v>
+      <c r="E35" s="23">
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G35" s="22">
         <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('34','19','41','60','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('34','19','46','60','ml');</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
@@ -16673,7 +16953,7 @@
         <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
@@ -16687,21 +16967,21 @@
       <c r="C37" s="6">
         <v>20</v>
       </c>
-      <c r="E37">
-        <v>42</v>
+      <c r="E37" s="23">
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G37" s="22">
         <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('36','20','42','15','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('36','20','47','15','ml');</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
@@ -16718,13 +16998,13 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G38" s="22">
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
@@ -16751,7 +17031,7 @@
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
@@ -16778,7 +17058,7 @@
         <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
@@ -16792,21 +17072,21 @@
       <c r="C41" s="6">
         <v>23</v>
       </c>
-      <c r="E41">
-        <v>43</v>
+      <c r="E41" s="23">
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G41" s="22">
         <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('40','23','43','30','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('40','23','48','30','ml');</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
@@ -16817,21 +17097,21 @@
         <v>23</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42">
-        <v>42</v>
+      <c r="E42" s="23">
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G42" s="22">
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('41','23','42','8','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('41','23','47','8','ml');</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
@@ -16854,7 +17134,7 @@
         <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
@@ -16868,21 +17148,21 @@
       <c r="C44" s="6">
         <v>24</v>
       </c>
-      <c r="E44">
-        <v>13</v>
+      <c r="E44" s="23">
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G44" s="22">
         <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('43','24','13','60','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('43','24','10','60','ml');</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
@@ -16892,21 +17172,21 @@
       <c r="C45" s="6">
         <v>24</v>
       </c>
-      <c r="E45">
-        <v>16</v>
+      <c r="E45" s="23">
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G45" s="22">
         <v>60</v>
       </c>
       <c r="H45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('44','24','16','60','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('44','24','17','60','ml');</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
@@ -16916,21 +17196,21 @@
       <c r="C46" s="6">
         <v>24</v>
       </c>
-      <c r="E46">
-        <v>24</v>
+      <c r="E46" s="23">
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G46" s="22">
         <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('45','24','24','60','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('45','24','25','60','ml');</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
@@ -16940,21 +17220,21 @@
       <c r="C47" s="6">
         <v>24</v>
       </c>
-      <c r="E47">
-        <v>44</v>
+      <c r="E47" s="23">
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G47" s="22">
         <v>60</v>
       </c>
       <c r="H47" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('46','24','44','60','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('46','24','49','60','ml');</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
@@ -16964,21 +17244,21 @@
       <c r="C48" s="6">
         <v>24</v>
       </c>
-      <c r="E48">
-        <v>38</v>
+      <c r="E48" s="23">
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G48" s="22">
         <v>60</v>
       </c>
       <c r="H48" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO article_alcohol VALUES('47','24','38','60','ml');</v>
+        <v>INSERT INTO article_alcohol VALUES('47','24','43','60','ml');</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
@@ -17001,7 +17281,7 @@
         <v>60</v>
       </c>
       <c r="H49" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
@@ -17024,7 +17304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -17046,19 +17326,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>47</v>
@@ -17070,12 +17350,12 @@
         <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -17090,7 +17370,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -17099,10 +17379,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>978</v>
+        <v>653</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>974</v>
       </c>
       <c r="K2" t="str">
         <f>"INSERT INTO article_ingredient VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;E2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
@@ -17122,7 +17402,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -17131,9 +17411,9 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>664</v>
-      </c>
-      <c r="J3" s="28"/>
+        <v>662</v>
+      </c>
+      <c r="J3" s="30"/>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K66" si="0">"INSERT INTO article_ingredient VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;E3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
         <v>INSERT INTO article_ingredient VALUES('2','1','2','1','1','tsp');</v>
@@ -17151,7 +17431,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -17160,9 +17440,9 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>779</v>
-      </c>
-      <c r="J4" s="28"/>
+        <v>776</v>
+      </c>
+      <c r="J4" s="30"/>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO article_ingredient VALUES('3','1','12','0','1','조각');</v>
@@ -17180,7 +17460,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -17189,9 +17469,9 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>780</v>
-      </c>
-      <c r="J5" s="28"/>
+        <v>777</v>
+      </c>
+      <c r="J5" s="30"/>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO article_ingredient VALUES('4','1','14','0','1','알');</v>
@@ -17206,13 +17486,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -17221,9 +17501,9 @@
         <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>655</v>
-      </c>
-      <c r="J6" s="28"/>
+        <v>653</v>
+      </c>
+      <c r="J6" s="30"/>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO article_ingredient VALUES('5','2','3','1','90','ml');</v>
@@ -17242,7 +17522,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -17251,9 +17531,9 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>655</v>
-      </c>
-      <c r="J7" s="28"/>
+        <v>653</v>
+      </c>
+      <c r="J7" s="30"/>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO article_ingredient VALUES('6','2','4','1','15','ml');</v>
@@ -17271,7 +17551,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -17280,9 +17560,9 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>779</v>
-      </c>
-      <c r="J8" s="28"/>
+        <v>776</v>
+      </c>
+      <c r="J8" s="30"/>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO article_ingredient VALUES('7','2','13','0','1','조각');</v>
@@ -17300,7 +17580,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -17309,9 +17589,9 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>780</v>
-      </c>
-      <c r="J9" s="28"/>
+        <v>777</v>
+      </c>
+      <c r="J9" s="30"/>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO article_ingredient VALUES('8','2','14','0','1','알');</v>
@@ -17326,13 +17606,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -17341,7 +17621,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -17361,7 +17641,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -17370,7 +17650,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -17389,7 +17669,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -17398,7 +17678,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -17417,7 +17697,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -17426,7 +17706,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -17442,13 +17722,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -17457,7 +17737,7 @@
         <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -17477,7 +17757,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -17486,7 +17766,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -17502,13 +17782,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -17517,7 +17797,7 @@
         <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -17539,7 +17819,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17548,7 +17828,7 @@
         <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -17566,7 +17846,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -17575,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -17593,7 +17873,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -17602,7 +17882,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -17617,13 +17897,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -17632,7 +17912,7 @@
         <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -17651,7 +17931,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -17660,7 +17940,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" t="str">
@@ -17682,7 +17962,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -17691,7 +17971,7 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -17706,13 +17986,13 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -17721,7 +18001,7 @@
         <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -17740,7 +18020,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -17749,7 +18029,7 @@
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -17767,7 +18047,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -17776,7 +18056,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -17794,7 +18074,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -17803,7 +18083,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -17818,13 +18098,13 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E27">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -17833,7 +18113,7 @@
         <v>135</v>
       </c>
       <c r="I27" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -17851,7 +18131,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -17860,7 +18140,7 @@
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -17878,7 +18158,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -17887,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -17905,7 +18185,7 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -17914,7 +18194,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -17929,13 +18209,13 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -17944,7 +18224,7 @@
         <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -17965,7 +18245,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -17974,7 +18254,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -17989,13 +18269,13 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E33">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -18004,7 +18284,7 @@
         <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -18025,7 +18305,7 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -18034,7 +18314,7 @@
         <v>90</v>
       </c>
       <c r="I34" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
@@ -18055,7 +18335,7 @@
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -18064,7 +18344,7 @@
         <v>90</v>
       </c>
       <c r="I35" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
@@ -18082,7 +18362,7 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -18091,7 +18371,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
@@ -18109,7 +18389,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18118,7 +18398,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
@@ -18136,7 +18416,7 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -18145,7 +18425,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
@@ -18166,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -18175,7 +18455,7 @@
         <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
@@ -18193,7 +18473,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -18202,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>
@@ -18223,7 +18503,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -18232,7 +18512,7 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
@@ -18250,7 +18530,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -18259,7 +18539,7 @@
         <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
@@ -18277,7 +18557,7 @@
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -18286,7 +18566,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
@@ -18304,7 +18584,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -18313,7 +18593,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
@@ -18334,7 +18614,7 @@
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -18343,7 +18623,7 @@
         <v>30</v>
       </c>
       <c r="I45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
@@ -18361,7 +18641,7 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -18370,7 +18650,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
@@ -18388,7 +18668,7 @@
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -18397,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
@@ -18412,13 +18692,13 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E48">
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -18427,7 +18707,7 @@
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
@@ -18445,7 +18725,7 @@
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -18454,7 +18734,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J49" s="23"/>
       <c r="K49" t="str">
@@ -18476,7 +18756,7 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -18485,7 +18765,7 @@
         <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
@@ -18503,7 +18783,7 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -18512,7 +18792,7 @@
         <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
@@ -18530,7 +18810,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -18539,7 +18819,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
@@ -18557,7 +18837,7 @@
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -18566,7 +18846,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
@@ -18587,7 +18867,7 @@
         <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -18596,7 +18876,7 @@
         <v>90</v>
       </c>
       <c r="I54" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
@@ -18617,7 +18897,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -18626,7 +18906,7 @@
         <v>120</v>
       </c>
       <c r="I55" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
@@ -18644,7 +18924,7 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -18653,7 +18933,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="0"/>
@@ -18671,7 +18951,7 @@
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -18680,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
@@ -18698,7 +18978,7 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -18707,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
@@ -18728,7 +19008,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -18737,7 +19017,7 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
@@ -18755,7 +19035,7 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -18764,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
@@ -18785,7 +19065,7 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -18794,7 +19074,7 @@
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
@@ -18812,7 +19092,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -18821,7 +19101,7 @@
         <v>420</v>
       </c>
       <c r="I62" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="0"/>
@@ -18839,7 +19119,7 @@
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -18848,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="0"/>
@@ -18869,7 +19149,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -18878,7 +19158,7 @@
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="0"/>
@@ -18896,7 +19176,7 @@
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -18905,7 +19185,7 @@
         <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="0"/>
@@ -18923,7 +19203,7 @@
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -18932,7 +19212,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J66" s="23"/>
       <c r="K66" t="str">
@@ -18951,7 +19231,7 @@
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -18960,7 +19240,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" ref="K67" si="1">"INSERT INTO article_ingredient VALUES('"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;E67&amp;"','"&amp;G67&amp;"','"&amp;H67&amp;"','"&amp;I67&amp;"');"</f>

--- a/DB/cocktailDB/cocktailDB_total.xlsx
+++ b/DB/cocktailDB/cocktailDB_total.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" tabRatio="756" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="9996" tabRatio="756" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="article-ingredient" sheetId="8" r:id="rId5"/>
     <sheet name="ingredient" sheetId="1" r:id="rId6"/>
     <sheet name="alcohol" sheetId="6" r:id="rId7"/>
+    <sheet name="tag" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">article!$C$1:$C$92</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="989">
   <si>
     <t>기저 주류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3887,6 +3888,18 @@
   </si>
   <si>
     <t>https://dimg.donga.com/wps/NEWS/IMAGE/2013/11/20/59008900.4.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White rum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13097,8 +13110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13660,7 +13673,7 @@
         <v>775</v>
       </c>
       <c r="D22" t="s">
-        <v>507</v>
+        <v>988</v>
       </c>
       <c r="E22" t="s">
         <v>529</v>
@@ -14309,4 +14322,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"INSERT INTO alcohol VALUES('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"');"</f>
+        <v>INSERT INTO alcohol VALUES('1','데킬라','Tequila','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H9" si="0">"INSERT INTO alcohol VALUES('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO alcohol VALUES('2','진','Gin','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D4" t="s">
+        <v>988</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('3','화이트 럼','White rum','1');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('4','럼','Rum','1');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('5','보드카','Vodka','1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('6','브랜디','Brandy','1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('7','리큐르','Liqueur','1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>883</v>
+      </c>
+      <c r="D9" t="s">
+        <v>886</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO alcohol VALUES('8','버번 위스키','Bourbon whiskey','1');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>